--- a/txsb_top_timing_bdlmax_prelb_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_prelb_tsmc2ff_meas.xlsx
@@ -504,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,19 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +536,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,154 +1112,154 @@
         <v>82</v>
       </c>
       <c r="T2">
-        <v>98.6255</v>
+        <v>98.62989999999999</v>
       </c>
       <c r="U2">
-        <v>97.7149</v>
+        <v>97.71210000000001</v>
       </c>
       <c r="V2">
-        <v>98.17019999999999</v>
+        <v>98.17100000000001</v>
       </c>
       <c r="W2">
-        <v>49.909</v>
+        <v>49.9085</v>
       </c>
       <c r="X2" s="2">
-        <v>17.1361</v>
+        <v>17.1372</v>
       </c>
       <c r="Y2" s="2">
-        <v>16.8431</v>
+        <v>16.8407</v>
       </c>
       <c r="Z2">
-        <v>35.0138</v>
+        <v>35.0115</v>
       </c>
       <c r="AA2">
-        <v>35.6228</v>
+        <v>35.628</v>
       </c>
       <c r="AB2">
-        <v>154.189</v>
+        <v>134.58</v>
       </c>
       <c r="AC2">
-        <v>148.757</v>
+        <v>133.653</v>
       </c>
       <c r="AD2">
-        <v>49.4586</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>234.906</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>234.083</v>
+        <v>49.9074</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>14.803</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>14.5333</v>
       </c>
       <c r="AG2">
-        <v>1.91566</v>
+        <v>30.3993</v>
       </c>
       <c r="AH2">
-        <v>1.92239</v>
+        <v>30.9634</v>
       </c>
       <c r="AI2">
-        <v>-2704.65</v>
+        <v>134.965</v>
       </c>
       <c r="AJ2">
-        <v>-3172.85</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>73.37260000000001</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>235.59</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>234.731</v>
+        <v>134.037</v>
+      </c>
+      <c r="AK2">
+        <v>49.9073</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>14.8078</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>14.5411</v>
       </c>
       <c r="AN2">
-        <v>1.9101</v>
+        <v>30.3894</v>
       </c>
       <c r="AO2">
-        <v>1.91709</v>
+        <v>30.9467</v>
       </c>
       <c r="AP2">
-        <v>60.06169999999999</v>
+        <v>60.06310000000001</v>
       </c>
       <c r="AQ2">
-        <v>60.45870000000001</v>
+        <v>60.4556</v>
       </c>
       <c r="AR2">
-        <v>50.0398</v>
+        <v>50.0392</v>
       </c>
       <c r="AS2" s="2">
-        <v>4.40615</v>
+        <v>4.40518</v>
       </c>
       <c r="AT2" s="2">
-        <v>4.227810000000001</v>
+        <v>4.227790000000001</v>
       </c>
       <c r="AU2">
-        <v>102.13</v>
+        <v>102.153</v>
       </c>
       <c r="AV2">
-        <v>106.438</v>
+        <v>106.439</v>
       </c>
       <c r="AW2">
-        <v>69.7689</v>
+        <v>69.7693</v>
       </c>
       <c r="AX2">
-        <v>70.0141</v>
+        <v>70.0097</v>
       </c>
       <c r="AY2">
-        <v>50.0246</v>
+        <v>50.024</v>
       </c>
       <c r="AZ2" s="2">
-        <v>8.39368</v>
+        <v>8.39367</v>
       </c>
       <c r="BA2" s="2">
-        <v>6.69099</v>
+        <v>6.69076</v>
       </c>
       <c r="BB2">
         <v>53.6118</v>
       </c>
       <c r="BC2">
-        <v>67.2546</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
+        <v>67.2569</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK2">
-        <v>97.2431</v>
+        <v>97.2439</v>
       </c>
       <c r="BL2">
-        <v>98.69240000000001</v>
+        <v>98.68730000000001</v>
       </c>
       <c r="BM2">
-        <v>50.145</v>
+        <v>50.1443</v>
       </c>
       <c r="BN2" s="2">
-        <v>15.5817</v>
+        <v>15.5838</v>
       </c>
       <c r="BO2" s="2">
-        <v>16.4131</v>
+        <v>16.4132</v>
       </c>
       <c r="BP2">
-        <v>28.8801</v>
+        <v>28.8761</v>
       </c>
       <c r="BQ2">
-        <v>27.4171</v>
+        <v>27.4169</v>
       </c>
     </row>
     <row r="3" spans="1:69">
@@ -1335,154 +1321,154 @@
         <v>82</v>
       </c>
       <c r="T3">
-        <v>109.771</v>
+        <v>109.78</v>
       </c>
       <c r="U3">
-        <v>108.759</v>
+        <v>108.758</v>
       </c>
       <c r="V3">
-        <v>109.265</v>
+        <v>109.269</v>
       </c>
       <c r="W3">
-        <v>49.8987</v>
+        <v>49.8985</v>
       </c>
       <c r="X3" s="2">
-        <v>20.0061</v>
+        <v>20.004</v>
       </c>
       <c r="Y3" s="2">
-        <v>19.8289</v>
+        <v>19.8251</v>
       </c>
       <c r="Z3">
-        <v>31.5105</v>
+        <v>31.5137</v>
       </c>
       <c r="AA3">
-        <v>31.792</v>
+        <v>31.7981</v>
       </c>
       <c r="AB3">
-        <v>-2649.09</v>
+        <v>149.814</v>
       </c>
       <c r="AC3">
-        <v>-2825.13</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>37.0689</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>238.351</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>237.433</v>
+        <v>146.06</v>
+      </c>
+      <c r="AD3">
+        <v>49.6247</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>16.3249</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>16.0751</v>
       </c>
       <c r="AG3">
-        <v>2.07677</v>
+        <v>30.3218</v>
       </c>
       <c r="AH3">
-        <v>2.0848</v>
+        <v>30.793</v>
       </c>
       <c r="AI3">
-        <v>-643.811</v>
+        <v>150.199</v>
       </c>
       <c r="AJ3">
-        <v>-648.3150000000001</v>
+        <v>146.446</v>
       </c>
       <c r="AK3">
-        <v>49.5502</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>239.107</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>238.156</v>
+        <v>49.6248</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>16.333</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>16.0828</v>
       </c>
       <c r="AN3">
-        <v>2.0702</v>
+        <v>30.3067</v>
       </c>
       <c r="AO3">
-        <v>2.07847</v>
+        <v>30.7781</v>
       </c>
       <c r="AP3">
-        <v>64.90090000000001</v>
+        <v>64.9025</v>
       </c>
       <c r="AQ3">
-        <v>65.38330000000001</v>
+        <v>65.3849</v>
       </c>
       <c r="AR3">
         <v>50.0482</v>
       </c>
       <c r="AS3" s="2">
-        <v>4.90916</v>
+        <v>4.90835</v>
       </c>
       <c r="AT3" s="2">
-        <v>4.793480000000001</v>
+        <v>4.79196</v>
       </c>
       <c r="AU3">
-        <v>96.3099</v>
+        <v>96.32559999999999</v>
       </c>
       <c r="AV3">
-        <v>98.634</v>
+        <v>98.6653</v>
       </c>
       <c r="AW3">
-        <v>76.1978</v>
+        <v>76.1991</v>
       </c>
       <c r="AX3">
-        <v>76.4237</v>
+        <v>76.4233</v>
       </c>
       <c r="AY3">
-        <v>50.0226</v>
+        <v>50.0224</v>
       </c>
       <c r="AZ3" s="2">
-        <v>9.871500000000001</v>
+        <v>9.87171</v>
       </c>
       <c r="BA3" s="2">
-        <v>7.74454</v>
+        <v>7.745130000000001</v>
       </c>
       <c r="BB3">
-        <v>47.8955</v>
+        <v>47.8945</v>
       </c>
       <c r="BC3">
-        <v>61.0495</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
+        <v>61.0448</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK3">
-        <v>107.744</v>
+        <v>107.746</v>
       </c>
       <c r="BL3">
-        <v>107.602</v>
+        <v>107.601</v>
       </c>
       <c r="BM3">
-        <v>49.9857</v>
+        <v>49.9856</v>
       </c>
       <c r="BN3" s="2">
-        <v>22.396</v>
+        <v>22.3987</v>
       </c>
       <c r="BO3" s="2">
-        <v>19.4972</v>
+        <v>19.4966</v>
       </c>
       <c r="BP3">
-        <v>22.1021</v>
+        <v>22.0995</v>
       </c>
       <c r="BQ3">
-        <v>25.3882</v>
+        <v>25.389</v>
       </c>
     </row>
     <row r="4" spans="1:69">
@@ -1544,154 +1530,154 @@
         <v>82</v>
       </c>
       <c r="T4">
-        <v>106.665</v>
+        <v>106.668</v>
       </c>
       <c r="U4">
-        <v>105.309</v>
+        <v>105.313</v>
       </c>
       <c r="V4">
-        <v>105.987</v>
+        <v>105.991</v>
       </c>
       <c r="W4">
-        <v>49.8648</v>
+        <v>49.8646</v>
       </c>
       <c r="X4" s="2">
-        <v>18.9263</v>
+        <v>18.923</v>
       </c>
       <c r="Y4" s="2">
-        <v>18.3274</v>
+        <v>18.3277</v>
       </c>
       <c r="Z4">
-        <v>33.3081</v>
+        <v>33.3139</v>
       </c>
       <c r="AA4">
-        <v>34.3967</v>
+        <v>34.3961</v>
       </c>
       <c r="AB4">
-        <v>168.377</v>
+        <v>144.491</v>
       </c>
       <c r="AC4">
-        <v>156.817</v>
+        <v>141.859</v>
       </c>
       <c r="AD4">
-        <v>48.8469</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>235.375</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>233.791</v>
+        <v>49.7369</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>15.071</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>14.5123</v>
       </c>
       <c r="AG4">
-        <v>2.10303</v>
+        <v>32.8444</v>
       </c>
       <c r="AH4">
-        <v>2.11728</v>
+        <v>34.1091</v>
       </c>
       <c r="AI4">
-        <v>-2651.07</v>
+        <v>144.875</v>
       </c>
       <c r="AJ4">
-        <v>-2780.07</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>94.333</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>236.092</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>234.454</v>
+        <v>142.245</v>
+      </c>
+      <c r="AK4">
+        <v>49.737</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>15.0753</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>14.5221</v>
       </c>
       <c r="AN4">
-        <v>2.09664</v>
+        <v>32.8351</v>
       </c>
       <c r="AO4">
-        <v>2.11129</v>
+        <v>34.0859</v>
       </c>
       <c r="AP4">
-        <v>61.6493</v>
+        <v>61.65150000000001</v>
       </c>
       <c r="AQ4">
-        <v>62.0294</v>
+        <v>62.0305</v>
       </c>
       <c r="AR4">
-        <v>50.0381</v>
+        <v>50.038</v>
       </c>
       <c r="AS4" s="2">
-        <v>4.088</v>
+        <v>4.08794</v>
       </c>
       <c r="AT4" s="2">
-        <v>3.96742</v>
+        <v>3.96516</v>
       </c>
       <c r="AU4">
-        <v>115.655</v>
+        <v>115.657</v>
       </c>
       <c r="AV4">
-        <v>119.171</v>
+        <v>119.238</v>
       </c>
       <c r="AW4">
-        <v>72.791</v>
+        <v>72.79350000000001</v>
       </c>
       <c r="AX4">
-        <v>72.9344</v>
+        <v>72.93600000000001</v>
       </c>
       <c r="AY4">
-        <v>50.0144</v>
+        <v>50.0143</v>
       </c>
       <c r="AZ4" s="2">
-        <v>9.20481</v>
+        <v>9.204610000000001</v>
       </c>
       <c r="BA4" s="2">
-        <v>7.01371</v>
+        <v>7.01336</v>
       </c>
       <c r="BB4">
-        <v>51.3644</v>
+        <v>51.3656</v>
       </c>
       <c r="BC4">
-        <v>67.4109</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
+        <v>67.41419999999999</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK4">
-        <v>104.202</v>
+        <v>104.204</v>
       </c>
       <c r="BL4">
-        <v>104.726</v>
+        <v>104.725</v>
       </c>
       <c r="BM4">
-        <v>50.0524</v>
+        <v>50.0522</v>
       </c>
       <c r="BN4" s="2">
-        <v>20.8779</v>
+        <v>20.8763</v>
       </c>
       <c r="BO4" s="2">
-        <v>17.4987</v>
+        <v>17.499</v>
       </c>
       <c r="BP4">
-        <v>23.7093</v>
+        <v>23.711</v>
       </c>
       <c r="BQ4">
-        <v>28.2879</v>
+        <v>28.2874</v>
       </c>
     </row>
     <row r="5" spans="1:69">
@@ -1753,154 +1739,154 @@
         <v>82</v>
       </c>
       <c r="T5">
-        <v>129.361</v>
+        <v>129.364</v>
       </c>
       <c r="U5">
-        <v>127.457</v>
+        <v>127.46</v>
       </c>
       <c r="V5">
-        <v>128.409</v>
+        <v>128.412</v>
       </c>
       <c r="W5">
-        <v>49.8094</v>
+        <v>49.8096</v>
       </c>
       <c r="X5" s="2">
-        <v>23.6302</v>
+        <v>23.6233</v>
       </c>
       <c r="Y5" s="2">
-        <v>23.7681</v>
+        <v>23.7618</v>
       </c>
       <c r="Z5">
-        <v>22.8521</v>
+        <v>22.8588</v>
       </c>
       <c r="AA5">
-        <v>22.7196</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>382.417</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>380.982</v>
+        <v>22.7255</v>
+      </c>
+      <c r="AB5">
+        <v>175.2</v>
+      </c>
+      <c r="AC5">
+        <v>174.248</v>
       </c>
       <c r="AD5">
-        <v>49.8562</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>247.833</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>246.858</v>
+        <v>49.905</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>19.451</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>19.376</v>
       </c>
       <c r="AG5">
-        <v>1.63416</v>
+        <v>20.8216</v>
       </c>
       <c r="AH5">
-        <v>1.64062</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>384.764</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>383.408</v>
+        <v>20.9022</v>
+      </c>
+      <c r="AI5">
+        <v>175.584</v>
+      </c>
+      <c r="AJ5">
+        <v>174.632</v>
       </c>
       <c r="AK5">
-        <v>49.8641</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>249.411</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>248.3</v>
+        <v>49.905</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>19.4562</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>19.3774</v>
       </c>
       <c r="AN5">
-        <v>1.62383</v>
+        <v>20.8159</v>
       </c>
       <c r="AO5">
-        <v>1.63109</v>
+        <v>20.9007</v>
       </c>
       <c r="AP5">
-        <v>72.87049999999999</v>
+        <v>72.87560000000001</v>
       </c>
       <c r="AQ5">
-        <v>73.30510000000001</v>
+        <v>73.31269999999999</v>
       </c>
       <c r="AR5">
-        <v>50.0434</v>
+        <v>50.0437</v>
       </c>
       <c r="AS5" s="2">
-        <v>5.31515</v>
+        <v>5.31487</v>
       </c>
       <c r="AT5" s="2">
-        <v>5.233309999999999</v>
+        <v>5.233280000000001</v>
       </c>
       <c r="AU5">
-        <v>76.1973</v>
+        <v>76.2013</v>
       </c>
       <c r="AV5">
-        <v>77.3888</v>
+        <v>77.38939999999999</v>
       </c>
       <c r="AW5">
-        <v>86.8141</v>
+        <v>86.81960000000001</v>
       </c>
       <c r="AX5">
-        <v>86.9393</v>
+        <v>86.9439</v>
       </c>
       <c r="AY5">
-        <v>50.0125</v>
+        <v>50.0124</v>
       </c>
       <c r="AZ5" s="2">
-        <v>11.2112</v>
+        <v>11.2105</v>
       </c>
       <c r="BA5" s="2">
-        <v>9.124440000000002</v>
+        <v>9.12726</v>
       </c>
       <c r="BB5">
-        <v>36.1247</v>
+        <v>36.1268</v>
       </c>
       <c r="BC5">
-        <v>44.3863</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
+        <v>44.3726</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK5">
-        <v>124.813</v>
+        <v>124.816</v>
       </c>
       <c r="BL5">
-        <v>126.665</v>
+        <v>126.67</v>
       </c>
       <c r="BM5">
-        <v>50.1851</v>
+        <v>50.1853</v>
       </c>
       <c r="BN5" s="2">
-        <v>21.4018</v>
+        <v>21.4007</v>
       </c>
       <c r="BO5" s="2">
-        <v>22.4541</v>
+        <v>22.4493</v>
       </c>
       <c r="BP5">
-        <v>18.9237</v>
+        <v>18.9246</v>
       </c>
       <c r="BQ5">
-        <v>18.0368</v>
+        <v>18.0406</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -1962,154 +1948,154 @@
         <v>82</v>
       </c>
       <c r="T6">
-        <v>132.561</v>
+        <v>132.567</v>
       </c>
       <c r="U6">
-        <v>129.894</v>
+        <v>129.904</v>
       </c>
       <c r="V6">
-        <v>131.228</v>
+        <v>131.235</v>
       </c>
       <c r="W6">
-        <v>49.7338</v>
+        <v>49.7339</v>
       </c>
       <c r="X6" s="2">
-        <v>23.1832</v>
+        <v>23.1846</v>
       </c>
       <c r="Y6" s="2">
-        <v>22.7313</v>
+        <v>22.7322</v>
       </c>
       <c r="Z6">
-        <v>23.2927</v>
+        <v>23.2913</v>
       </c>
       <c r="AA6">
-        <v>23.7557</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>386.801</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>384.945</v>
+        <v>23.7548</v>
+      </c>
+      <c r="AB6">
+        <v>179.179</v>
+      </c>
+      <c r="AC6">
+        <v>178.838</v>
       </c>
       <c r="AD6">
-        <v>49.8141</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>246.585</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>243.91</v>
+        <v>49.9661</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>18.7456</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>18.2438</v>
       </c>
       <c r="AG6">
-        <v>1.64244</v>
+        <v>21.6051</v>
       </c>
       <c r="AH6">
-        <v>1.66045</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>389.062</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>387.576</v>
+        <v>22.1993</v>
+      </c>
+      <c r="AI6">
+        <v>179.563</v>
+      </c>
+      <c r="AJ6">
+        <v>179.223</v>
       </c>
       <c r="AK6">
-        <v>49.8512</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>248.258</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>245.189</v>
+        <v>49.9662</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>18.7488</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>18.2462</v>
       </c>
       <c r="AN6">
-        <v>1.63137</v>
+        <v>21.6013</v>
       </c>
       <c r="AO6">
-        <v>1.65179</v>
+        <v>22.1964</v>
       </c>
       <c r="AP6">
-        <v>72.7765</v>
+        <v>72.78360000000001</v>
       </c>
       <c r="AQ6">
-        <v>73.1275</v>
+        <v>73.1315</v>
       </c>
       <c r="AR6">
-        <v>50.0351</v>
+        <v>50.0348</v>
       </c>
       <c r="AS6" s="2">
-        <v>4.7888</v>
+        <v>4.78879</v>
       </c>
       <c r="AT6" s="2">
-        <v>4.6574</v>
+        <v>4.657710000000001</v>
       </c>
       <c r="AU6">
-        <v>84.5723</v>
+        <v>84.57250000000001</v>
       </c>
       <c r="AV6">
-        <v>86.9584</v>
+        <v>86.9525</v>
       </c>
       <c r="AW6">
-        <v>87.34660000000001</v>
+        <v>87.3515</v>
       </c>
       <c r="AX6">
-        <v>87.29300000000001</v>
+        <v>87.29770000000001</v>
       </c>
       <c r="AY6">
         <v>49.9946</v>
       </c>
       <c r="AZ6" s="2">
-        <v>10.7445</v>
+        <v>10.7449</v>
       </c>
       <c r="BA6" s="2">
-        <v>8.516539999999999</v>
+        <v>8.517320000000002</v>
       </c>
       <c r="BB6">
-        <v>37.6937</v>
+        <v>37.6922</v>
       </c>
       <c r="BC6">
-        <v>47.5546</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
+        <v>47.5502</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK6">
-        <v>127.734</v>
+        <v>127.738</v>
       </c>
       <c r="BL6">
-        <v>129.845</v>
+        <v>129.846</v>
       </c>
       <c r="BM6">
-        <v>50.211</v>
+        <v>50.2109</v>
       </c>
       <c r="BN6" s="2">
-        <v>20.7433</v>
+        <v>20.7429</v>
       </c>
       <c r="BO6" s="2">
-        <v>20.1836</v>
+        <v>20.1939</v>
       </c>
       <c r="BP6">
-        <v>19.5244</v>
+        <v>19.5248</v>
       </c>
       <c r="BQ6">
-        <v>20.0658</v>
+        <v>20.0556</v>
       </c>
     </row>
     <row r="7" spans="1:69">
@@ -2171,154 +2157,154 @@
         <v>112</v>
       </c>
       <c r="T7">
-        <v>86.6799</v>
+        <v>86.68470000000001</v>
       </c>
       <c r="U7">
-        <v>85.9481</v>
+        <v>85.95059999999999</v>
       </c>
       <c r="V7">
-        <v>86.31400000000001</v>
+        <v>86.3177</v>
       </c>
       <c r="W7">
-        <v>49.9269</v>
+        <v>49.9268</v>
       </c>
       <c r="X7" s="2">
-        <v>14.9129</v>
+        <v>14.9058</v>
       </c>
       <c r="Y7" s="2">
-        <v>14.915</v>
+        <v>14.9132</v>
       </c>
       <c r="Z7">
-        <v>42.2721</v>
+        <v>42.2922</v>
       </c>
       <c r="AA7">
-        <v>42.2662</v>
+        <v>42.2712</v>
       </c>
       <c r="AB7">
-        <v>130.292</v>
+        <v>121.188</v>
       </c>
       <c r="AC7">
-        <v>124.431</v>
+        <v>116.239</v>
       </c>
       <c r="AD7">
-        <v>49.4144</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>230.491</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>230.072</v>
+        <v>49.505</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>12.8487</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>12.6989</v>
       </c>
       <c r="AG7">
-        <v>2.14759</v>
+        <v>38.5254</v>
       </c>
       <c r="AH7">
-        <v>2.1515</v>
+        <v>38.9797</v>
       </c>
       <c r="AI7">
-        <v>136.25</v>
+        <v>121.575</v>
       </c>
       <c r="AJ7">
-        <v>129.659</v>
+        <v>116.626</v>
       </c>
       <c r="AK7">
-        <v>49.342</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>231.09</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>230.668</v>
+        <v>49.505</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>12.8571</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>12.7093</v>
       </c>
       <c r="AN7">
-        <v>2.14202</v>
+        <v>38.5002</v>
       </c>
       <c r="AO7">
-        <v>2.14594</v>
+        <v>38.9479</v>
       </c>
       <c r="AP7">
-        <v>55.3074</v>
+        <v>55.3145</v>
       </c>
       <c r="AQ7">
-        <v>55.8539</v>
+        <v>55.86110000000001</v>
       </c>
       <c r="AR7">
-        <v>50.0547</v>
+        <v>50.0546</v>
       </c>
       <c r="AS7" s="2">
-        <v>5.564789999999999</v>
+        <v>5.56379</v>
       </c>
       <c r="AT7" s="2">
-        <v>5.353009999999999</v>
+        <v>5.353820000000001</v>
       </c>
       <c r="AU7">
-        <v>84.9627</v>
+        <v>84.9781</v>
       </c>
       <c r="AV7">
-        <v>88.3242</v>
+        <v>88.3108</v>
       </c>
       <c r="AW7">
-        <v>63.6395</v>
+        <v>63.6481</v>
       </c>
       <c r="AX7">
-        <v>63.8334</v>
+        <v>63.8405</v>
       </c>
       <c r="AY7">
-        <v>50.0194</v>
+        <v>50.0192</v>
       </c>
       <c r="AZ7" s="2">
-        <v>7.80708</v>
+        <v>7.80796</v>
       </c>
       <c r="BA7" s="2">
-        <v>6.21252</v>
+        <v>6.21236</v>
       </c>
       <c r="BB7">
-        <v>60.5604</v>
+        <v>60.5536</v>
       </c>
       <c r="BC7">
-        <v>76.1044</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
+        <v>76.1063</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK7">
-        <v>88.06140000000001</v>
+        <v>88.07050000000001</v>
       </c>
       <c r="BL7">
-        <v>86.27300000000001</v>
+        <v>86.2818</v>
       </c>
       <c r="BM7">
-        <v>49.8212</v>
+        <v>49.8211</v>
       </c>
       <c r="BN7" s="2">
-        <v>16.9877</v>
+        <v>16.9857</v>
       </c>
       <c r="BO7" s="2">
-        <v>15.2783</v>
+        <v>15.2751</v>
       </c>
       <c r="BP7">
-        <v>29.1388</v>
+        <v>29.1422</v>
       </c>
       <c r="BQ7">
-        <v>32.3989</v>
+        <v>32.4057</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -2380,154 +2366,154 @@
         <v>112</v>
       </c>
       <c r="T8">
-        <v>80.3034</v>
+        <v>80.313</v>
       </c>
       <c r="U8">
-        <v>79.78100000000001</v>
+        <v>79.78870000000001</v>
       </c>
       <c r="V8">
-        <v>80.04220000000001</v>
+        <v>80.0509</v>
       </c>
       <c r="W8">
-        <v>49.948</v>
+        <v>49.9479</v>
       </c>
       <c r="X8" s="2">
-        <v>13.5318</v>
+        <v>13.5311</v>
       </c>
       <c r="Y8" s="2">
-        <v>13.2598</v>
+        <v>13.2599</v>
       </c>
       <c r="Z8">
-        <v>46.5866</v>
+        <v>46.5891</v>
       </c>
       <c r="AA8">
-        <v>47.5424</v>
+        <v>47.5417</v>
       </c>
       <c r="AB8">
-        <v>117.502</v>
+        <v>110.865</v>
       </c>
       <c r="AC8">
-        <v>113.934</v>
+        <v>108.084</v>
       </c>
       <c r="AD8">
-        <v>49.6435</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>227.611</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>226.979</v>
+        <v>49.722</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>11.503</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>11.2196</v>
       </c>
       <c r="AG8">
-        <v>2.17476</v>
+        <v>43.0324</v>
       </c>
       <c r="AH8">
-        <v>2.18082</v>
+        <v>44.1192</v>
       </c>
       <c r="AI8">
-        <v>121.136</v>
+        <v>111.25</v>
       </c>
       <c r="AJ8">
-        <v>117.142</v>
+        <v>108.47</v>
       </c>
       <c r="AK8">
-        <v>49.6011</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>228.287</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>227.669</v>
+        <v>49.722</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>11.5137</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>11.2324</v>
       </c>
       <c r="AN8">
-        <v>2.16832</v>
+        <v>42.9921</v>
       </c>
       <c r="AO8">
-        <v>2.17421</v>
+        <v>44.0691</v>
       </c>
       <c r="AP8">
-        <v>50.6104</v>
+        <v>50.6143</v>
       </c>
       <c r="AQ8">
-        <v>51.0594</v>
+        <v>51.06330000000001</v>
       </c>
       <c r="AR8">
         <v>50.0449</v>
       </c>
       <c r="AS8" s="2">
-        <v>4.01423</v>
+        <v>4.01725</v>
       </c>
       <c r="AT8" s="2">
-        <v>3.79872</v>
+        <v>3.79708</v>
       </c>
       <c r="AU8">
-        <v>117.781</v>
+        <v>117.693</v>
       </c>
       <c r="AV8">
-        <v>124.463</v>
+        <v>124.517</v>
       </c>
       <c r="AW8">
-        <v>58.28450000000001</v>
+        <v>58.2904</v>
       </c>
       <c r="AX8">
-        <v>58.59289999999999</v>
+        <v>58.59690000000001</v>
       </c>
       <c r="AY8">
-        <v>50.0308</v>
+        <v>50.0307</v>
       </c>
       <c r="AZ8" s="2">
-        <v>7.06927</v>
+        <v>7.06832</v>
       </c>
       <c r="BA8" s="2">
-        <v>5.56065</v>
+        <v>5.56028</v>
       </c>
       <c r="BB8">
-        <v>66.881</v>
+        <v>66.89</v>
       </c>
       <c r="BC8">
-        <v>85.026</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
+        <v>85.0317</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK8">
-        <v>80.86360000000001</v>
+        <v>80.8711</v>
       </c>
       <c r="BL8">
-        <v>80.75430000000001</v>
+        <v>80.7565</v>
       </c>
       <c r="BM8">
-        <v>49.989</v>
+        <v>49.9886</v>
       </c>
       <c r="BN8" s="2">
-        <v>15.4559</v>
+        <v>15.4553</v>
       </c>
       <c r="BO8" s="2">
-        <v>13.7702</v>
+        <v>13.772</v>
       </c>
       <c r="BP8">
-        <v>32.0267</v>
+        <v>32.0279</v>
       </c>
       <c r="BQ8">
-        <v>35.9471</v>
+        <v>35.9425</v>
       </c>
     </row>
     <row r="9" spans="1:69">
@@ -2589,154 +2575,154 @@
         <v>112</v>
       </c>
       <c r="T9">
-        <v>93.9422</v>
+        <v>93.95480000000001</v>
       </c>
       <c r="U9">
-        <v>93.0412</v>
+        <v>93.0459</v>
       </c>
       <c r="V9">
-        <v>93.49170000000001</v>
+        <v>93.5004</v>
       </c>
       <c r="W9">
-        <v>49.9094</v>
+        <v>49.909</v>
       </c>
       <c r="X9" s="2">
-        <v>16.4293</v>
+        <v>16.4237</v>
       </c>
       <c r="Y9" s="2">
-        <v>16.5827</v>
+        <v>16.586</v>
       </c>
       <c r="Z9">
-        <v>32.8682</v>
+        <v>32.8792</v>
       </c>
       <c r="AA9">
-        <v>32.564</v>
+        <v>32.5576</v>
       </c>
       <c r="AB9">
-        <v>145.104</v>
+        <v>129.806</v>
       </c>
       <c r="AC9">
-        <v>141.057</v>
+        <v>127.257</v>
       </c>
       <c r="AD9">
-        <v>49.5963</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>234.03</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>233.742</v>
+        <v>49.7452</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>14.4621</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>14.4091</v>
       </c>
       <c r="AG9">
-        <v>1.73055</v>
+        <v>28.0042</v>
       </c>
       <c r="AH9">
-        <v>1.73268</v>
+        <v>28.1072</v>
       </c>
       <c r="AI9">
-        <v>-2760.28</v>
+        <v>130.191</v>
       </c>
       <c r="AJ9">
-        <v>-3175.54</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>90.9646</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>234.675</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>234.374</v>
+        <v>127.643</v>
+      </c>
+      <c r="AK9">
+        <v>49.7452</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>14.4668</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>14.4128</v>
       </c>
       <c r="AN9">
-        <v>1.72579</v>
+        <v>27.9952</v>
       </c>
       <c r="AO9">
-        <v>1.72801</v>
+        <v>28.1</v>
       </c>
       <c r="AP9">
-        <v>58.50660000000001</v>
+        <v>58.51910000000001</v>
       </c>
       <c r="AQ9">
-        <v>58.99400000000001</v>
+        <v>59.0038</v>
       </c>
       <c r="AR9">
-        <v>50.0487</v>
+        <v>50.0485</v>
       </c>
       <c r="AS9" s="2">
-        <v>5.52228</v>
+        <v>5.52249</v>
       </c>
       <c r="AT9" s="2">
-        <v>5.32916</v>
+        <v>5.329730000000001</v>
       </c>
       <c r="AU9">
-        <v>73.33920000000001</v>
+        <v>73.3365</v>
       </c>
       <c r="AV9">
-        <v>75.997</v>
+        <v>75.9888</v>
       </c>
       <c r="AW9">
-        <v>67.85080000000001</v>
+        <v>67.86399999999999</v>
       </c>
       <c r="AX9">
-        <v>68.0172</v>
+        <v>68.0277</v>
       </c>
       <c r="AY9">
-        <v>50.0166</v>
+        <v>50.0164</v>
       </c>
       <c r="AZ9" s="2">
-        <v>8.42792</v>
+        <v>8.42652</v>
       </c>
       <c r="BA9" s="2">
-        <v>6.880780000000001</v>
+        <v>6.881200000000001</v>
       </c>
       <c r="BB9">
-        <v>48.0546</v>
+        <v>48.0625</v>
       </c>
       <c r="BC9">
-        <v>58.8596</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
+        <v>58.856</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK9">
-        <v>94.2364</v>
+        <v>94.2496</v>
       </c>
       <c r="BL9">
-        <v>94.1863</v>
+        <v>94.19580000000001</v>
       </c>
       <c r="BM9">
-        <v>49.995</v>
+        <v>49.9946</v>
       </c>
       <c r="BN9" s="2">
-        <v>15.4484</v>
+        <v>15.4485</v>
       </c>
       <c r="BO9" s="2">
-        <v>17.2277</v>
+        <v>17.2272</v>
       </c>
       <c r="BP9">
-        <v>26.2163</v>
+        <v>26.2161</v>
       </c>
       <c r="BQ9">
-        <v>23.5086</v>
+        <v>23.5093</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -2798,154 +2784,154 @@
         <v>112</v>
       </c>
       <c r="T10">
-        <v>89.6503</v>
+        <v>89.6558</v>
       </c>
       <c r="U10">
-        <v>88.7685</v>
+        <v>88.7786</v>
       </c>
       <c r="V10">
-        <v>89.2094</v>
+        <v>89.21720000000001</v>
       </c>
       <c r="W10">
-        <v>49.912</v>
+        <v>49.9121</v>
       </c>
       <c r="X10" s="2">
-        <v>15.1274</v>
+        <v>15.127</v>
       </c>
       <c r="Y10" s="2">
-        <v>14.9578</v>
+        <v>14.9587</v>
       </c>
       <c r="Z10">
-        <v>35.6969</v>
+        <v>35.6977</v>
       </c>
       <c r="AA10">
-        <v>36.1016</v>
+        <v>36.0993</v>
       </c>
       <c r="AB10">
-        <v>134.281</v>
+        <v>122.528</v>
       </c>
       <c r="AC10">
-        <v>132.283</v>
+        <v>121.921</v>
       </c>
       <c r="AD10">
-        <v>49.8009</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>231.189</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>230.682</v>
+        <v>49.9396</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>13.2045</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>13.0139</v>
       </c>
       <c r="AG10">
-        <v>1.75181</v>
+        <v>30.6715</v>
       </c>
       <c r="AH10">
-        <v>1.75566</v>
+        <v>31.1207</v>
       </c>
       <c r="AI10">
-        <v>144.668</v>
+        <v>122.912</v>
       </c>
       <c r="AJ10">
-        <v>140.024</v>
+        <v>122.307</v>
       </c>
       <c r="AK10">
-        <v>49.5381</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>231.836</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>231.301</v>
+        <v>49.9397</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>13.2105</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>13.0238</v>
       </c>
       <c r="AN10">
-        <v>1.74692</v>
+        <v>30.6574</v>
       </c>
       <c r="AO10">
-        <v>1.75096</v>
+        <v>31.0968</v>
       </c>
       <c r="AP10">
-        <v>54.9954</v>
+        <v>55.0072</v>
       </c>
       <c r="AQ10">
-        <v>55.34690000000001</v>
+        <v>55.3555</v>
       </c>
       <c r="AR10">
-        <v>50.0352</v>
+        <v>50.035</v>
       </c>
       <c r="AS10" s="2">
-        <v>4.09213</v>
+        <v>4.09206</v>
       </c>
       <c r="AT10" s="2">
-        <v>3.89497</v>
+        <v>3.89743</v>
       </c>
       <c r="AU10">
-        <v>98.9704</v>
+        <v>98.9722</v>
       </c>
       <c r="AV10">
-        <v>103.98</v>
+        <v>103.915</v>
       </c>
       <c r="AW10">
-        <v>63.8807</v>
+        <v>63.8909</v>
       </c>
       <c r="AX10">
-        <v>64.0796</v>
+        <v>64.0902</v>
       </c>
       <c r="AY10">
-        <v>50.0199</v>
+        <v>50.0201</v>
       </c>
       <c r="AZ10" s="2">
-        <v>7.66804</v>
+        <v>7.66793</v>
       </c>
       <c r="BA10" s="2">
-        <v>6.17999</v>
+        <v>6.18055</v>
       </c>
       <c r="BB10">
-        <v>52.8167</v>
+        <v>52.8174</v>
       </c>
       <c r="BC10">
-        <v>65.5341</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
+        <v>65.52809999999999</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK10">
-        <v>89.39490000000001</v>
+        <v>89.4059</v>
       </c>
       <c r="BL10">
-        <v>90.7848</v>
+        <v>90.7961</v>
       </c>
       <c r="BM10">
-        <v>50.1391</v>
+        <v>50.1393</v>
       </c>
       <c r="BN10" s="2">
-        <v>14.3431</v>
+        <v>14.3423</v>
       </c>
       <c r="BO10" s="2">
-        <v>15.4052</v>
+        <v>15.4038</v>
       </c>
       <c r="BP10">
-        <v>28.2366</v>
+        <v>28.2382</v>
       </c>
       <c r="BQ10">
-        <v>26.2899</v>
+        <v>26.2923</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -3007,154 +2993,154 @@
         <v>112</v>
       </c>
       <c r="T11">
-        <v>94.52209999999999</v>
+        <v>94.52800000000001</v>
       </c>
       <c r="U11">
-        <v>94.1016</v>
+        <v>94.11670000000001</v>
       </c>
       <c r="V11">
-        <v>94.31180000000001</v>
+        <v>94.3224</v>
       </c>
       <c r="W11">
-        <v>49.9587</v>
+        <v>49.9586</v>
       </c>
       <c r="X11" s="2">
-        <v>18.2524</v>
+        <v>18.2485</v>
       </c>
       <c r="Y11" s="2">
-        <v>15.9039</v>
+        <v>15.903</v>
       </c>
       <c r="Z11">
-        <v>34.5378</v>
+        <v>34.5454</v>
       </c>
       <c r="AA11">
-        <v>39.6382</v>
+        <v>39.6403</v>
       </c>
       <c r="AB11">
-        <v>152.917</v>
+        <v>130.704</v>
       </c>
       <c r="AC11">
-        <v>134.685</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>48.1792</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>235.248</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>230.431</v>
+        <v>126.475</v>
+      </c>
+      <c r="AD11">
+        <v>49.5768</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>14.826</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>12.8856</v>
       </c>
       <c r="AG11">
-        <v>2.10416</v>
+        <v>33.3874</v>
       </c>
       <c r="AH11">
-        <v>2.14815</v>
+        <v>38.4149</v>
       </c>
       <c r="AI11">
-        <v>-1695.59</v>
+        <v>131.089</v>
       </c>
       <c r="AJ11">
-        <v>-2178</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>56.4603</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>235.923</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>231.041</v>
+        <v>126.861</v>
+      </c>
+      <c r="AK11">
+        <v>49.5769</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>14.8278</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>12.8973</v>
       </c>
       <c r="AN11">
-        <v>2.09815</v>
+        <v>33.3832</v>
       </c>
       <c r="AO11">
-        <v>2.14248</v>
+        <v>38.3801</v>
       </c>
       <c r="AP11">
-        <v>57.9186</v>
+        <v>57.9308</v>
       </c>
       <c r="AQ11">
-        <v>58.25369999999999</v>
+        <v>58.26350000000001</v>
       </c>
       <c r="AR11">
-        <v>50.0334</v>
+        <v>50.033</v>
       </c>
       <c r="AS11" s="2">
-        <v>5.254090000000001</v>
+        <v>5.25455</v>
       </c>
       <c r="AT11" s="2">
-        <v>4.48908</v>
+        <v>4.491029999999999</v>
       </c>
       <c r="AU11">
-        <v>89.9871</v>
+        <v>89.97920000000001</v>
       </c>
       <c r="AV11">
-        <v>105.322</v>
+        <v>105.277</v>
       </c>
       <c r="AW11">
-        <v>67.86189999999999</v>
+        <v>67.8733</v>
       </c>
       <c r="AX11">
-        <v>67.4692</v>
+        <v>67.4812</v>
       </c>
       <c r="AY11">
-        <v>49.9606</v>
+        <v>49.9604</v>
       </c>
       <c r="AZ11" s="2">
         <v>10.1726</v>
       </c>
       <c r="BA11" s="2">
-        <v>6.14801</v>
+        <v>6.14886</v>
       </c>
       <c r="BB11">
-        <v>46.4778</v>
+        <v>46.4776</v>
       </c>
       <c r="BC11">
-        <v>76.9029</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
+        <v>76.89230000000001</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK11">
-        <v>95.9599</v>
+        <v>95.97430000000001</v>
       </c>
       <c r="BL11">
-        <v>93.2218</v>
+        <v>93.23270000000001</v>
       </c>
       <c r="BM11">
-        <v>49.726</v>
+        <v>49.7255</v>
       </c>
       <c r="BN11" s="2">
-        <v>24.7299</v>
+        <v>24.7289</v>
       </c>
       <c r="BO11" s="2">
-        <v>14.086</v>
+        <v>14.0864</v>
       </c>
       <c r="BP11">
-        <v>20.0163</v>
+        <v>20.0171</v>
       </c>
       <c r="BQ11">
-        <v>35.1412</v>
+        <v>35.1403</v>
       </c>
     </row>
     <row r="12" spans="1:69">
@@ -3216,154 +3202,154 @@
         <v>112</v>
       </c>
       <c r="T12">
-        <v>89.9494</v>
+        <v>89.9552</v>
       </c>
       <c r="U12">
-        <v>89.4682</v>
+        <v>89.4812</v>
       </c>
       <c r="V12">
-        <v>89.7088</v>
+        <v>89.7182</v>
       </c>
       <c r="W12">
-        <v>49.9522</v>
+        <v>49.9521</v>
       </c>
       <c r="X12" s="2">
-        <v>17.1671</v>
+        <v>17.1669</v>
       </c>
       <c r="Y12" s="2">
-        <v>14.384</v>
+        <v>14.383</v>
       </c>
       <c r="Z12">
-        <v>36.7214</v>
+        <v>36.7218</v>
       </c>
       <c r="AA12">
-        <v>43.8265</v>
+        <v>43.8294</v>
       </c>
       <c r="AB12">
-        <v>137.553</v>
+        <v>123.322</v>
       </c>
       <c r="AC12">
-        <v>126.103</v>
+        <v>119.954</v>
       </c>
       <c r="AD12">
-        <v>48.8559</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>232.396</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>227.357</v>
+        <v>49.663</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>13.6438</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>11.4406</v>
       </c>
       <c r="AG12">
-        <v>2.12999</v>
+        <v>36.2801</v>
       </c>
       <c r="AH12">
-        <v>2.17719</v>
+        <v>43.2671</v>
       </c>
       <c r="AI12">
-        <v>-1842.85</v>
+        <v>123.707</v>
       </c>
       <c r="AJ12">
-        <v>-2178.57</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>98.71339999999999</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>233.067</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>228.039</v>
+        <v>120.34</v>
+      </c>
+      <c r="AK12">
+        <v>49.6631</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>13.6501</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>11.4525</v>
       </c>
       <c r="AN12">
-        <v>2.12385</v>
+        <v>36.2636</v>
       </c>
       <c r="AO12">
-        <v>2.17068</v>
+        <v>43.2221</v>
       </c>
       <c r="AP12">
-        <v>53.9482</v>
+        <v>53.9588</v>
       </c>
       <c r="AQ12">
-        <v>54.3107</v>
+        <v>54.3207</v>
       </c>
       <c r="AR12">
         <v>50.036</v>
       </c>
       <c r="AS12" s="2">
-        <v>4.084700000000001</v>
+        <v>4.08703</v>
       </c>
       <c r="AT12" s="2">
-        <v>3.42876</v>
+        <v>3.42952</v>
       </c>
       <c r="AU12">
-        <v>115.749</v>
+        <v>115.683</v>
       </c>
       <c r="AV12">
-        <v>137.892</v>
+        <v>137.862</v>
       </c>
       <c r="AW12">
-        <v>63.55</v>
+        <v>63.5607</v>
       </c>
       <c r="AX12">
-        <v>63.1695</v>
+        <v>63.1792</v>
       </c>
       <c r="AY12">
         <v>49.9617</v>
       </c>
       <c r="AZ12" s="2">
-        <v>9.49025</v>
+        <v>9.489100000000001</v>
       </c>
       <c r="BA12" s="2">
-        <v>5.48604</v>
+        <v>5.48588</v>
       </c>
       <c r="BB12">
-        <v>49.8195</v>
+        <v>49.8256</v>
       </c>
       <c r="BC12">
-        <v>86.1824</v>
-      </c>
-      <c r="BD12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ12" s="4" t="s">
+        <v>86.1849</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ12" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK12">
-        <v>90.8412</v>
+        <v>90.8511</v>
       </c>
       <c r="BL12">
-        <v>88.95829999999999</v>
+        <v>88.9678</v>
       </c>
       <c r="BM12">
         <v>49.8114</v>
       </c>
       <c r="BN12" s="2">
-        <v>23.4344</v>
+        <v>23.434</v>
       </c>
       <c r="BO12" s="2">
-        <v>12.6632</v>
+        <v>12.6617</v>
       </c>
       <c r="BP12">
-        <v>21.1228</v>
+        <v>21.1232</v>
       </c>
       <c r="BQ12">
-        <v>39.0895</v>
+        <v>39.0943</v>
       </c>
     </row>
     <row r="13" spans="1:69">
@@ -3425,154 +3411,154 @@
         <v>123</v>
       </c>
       <c r="T13">
-        <v>103.133</v>
+        <v>103.144</v>
       </c>
       <c r="U13">
-        <v>102.451</v>
+        <v>102.457</v>
       </c>
       <c r="V13">
-        <v>102.792</v>
+        <v>102.8</v>
       </c>
       <c r="W13">
-        <v>49.9315</v>
+        <v>49.9314</v>
       </c>
       <c r="X13" s="2">
-        <v>19.5989</v>
+        <v>19.5974</v>
       </c>
       <c r="Y13" s="2">
-        <v>17.1307</v>
+        <v>17.1296</v>
       </c>
       <c r="Z13">
-        <v>32.1652</v>
+        <v>32.1676</v>
       </c>
       <c r="AA13">
-        <v>36.7995</v>
+        <v>36.8019</v>
       </c>
       <c r="AB13">
-        <v>-1703.36</v>
+        <v>141.883</v>
       </c>
       <c r="AC13">
-        <v>-2165.35</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>78.0138</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>239.227</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>234.174</v>
+        <v>137.688</v>
+      </c>
+      <c r="AD13">
+        <v>49.5805</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>16.2431</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>14.4366</v>
       </c>
       <c r="AG13">
-        <v>2.06916</v>
+        <v>30.4745</v>
       </c>
       <c r="AH13">
-        <v>2.11382</v>
+        <v>34.2879</v>
       </c>
       <c r="AI13">
-        <v>-1650.69</v>
+        <v>142.269</v>
       </c>
       <c r="AJ13">
-        <v>-1802.36</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>72.0068</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>240.001</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>234.808</v>
+        <v>138.075</v>
+      </c>
+      <c r="AK13">
+        <v>49.5806</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>16.2464</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>14.4419</v>
       </c>
       <c r="AN13">
-        <v>2.06249</v>
+        <v>30.4683</v>
       </c>
       <c r="AO13">
-        <v>2.1081</v>
+        <v>34.2753</v>
       </c>
       <c r="AP13">
-        <v>65.3073</v>
+        <v>65.3141</v>
       </c>
       <c r="AQ13">
-        <v>65.4924</v>
+        <v>65.4996</v>
       </c>
       <c r="AR13">
         <v>50.0185</v>
       </c>
       <c r="AS13" s="2">
-        <v>6.102880000000001</v>
+        <v>6.10081</v>
       </c>
       <c r="AT13" s="2">
-        <v>5.142810000000001</v>
+        <v>5.14352</v>
       </c>
       <c r="AU13">
-        <v>77.4716</v>
+        <v>77.4979</v>
       </c>
       <c r="AV13">
-        <v>91.9341</v>
+        <v>91.9216</v>
       </c>
       <c r="AW13">
-        <v>75.27130000000001</v>
+        <v>75.27809999999999</v>
       </c>
       <c r="AX13">
-        <v>74.8831</v>
+        <v>74.8875</v>
       </c>
       <c r="AY13">
-        <v>49.9612</v>
+        <v>49.9609</v>
       </c>
       <c r="AZ13" s="2">
-        <v>10.2425</v>
+        <v>10.2431</v>
       </c>
       <c r="BA13" s="2">
-        <v>6.39088</v>
+        <v>6.39242</v>
       </c>
       <c r="BB13">
-        <v>46.1605</v>
+        <v>46.1577</v>
       </c>
       <c r="BC13">
-        <v>73.98050000000001</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ13" s="4" t="s">
+        <v>73.96259999999999</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK13">
-        <v>103.94</v>
+        <v>103.95</v>
       </c>
       <c r="BL13">
-        <v>101.438</v>
+        <v>101.442</v>
       </c>
       <c r="BM13">
-        <v>49.7498</v>
+        <v>49.7493</v>
       </c>
       <c r="BN13" s="2">
-        <v>25.0123</v>
+        <v>25.0115</v>
       </c>
       <c r="BO13" s="2">
-        <v>14.4368</v>
+        <v>14.4379</v>
       </c>
       <c r="BP13">
-        <v>19.7903</v>
+        <v>19.7909</v>
       </c>
       <c r="BQ13">
-        <v>34.2874</v>
+        <v>34.2848</v>
       </c>
     </row>
     <row r="14" spans="1:69">
@@ -3634,154 +3620,154 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>98.053</v>
+        <v>98.0568</v>
       </c>
       <c r="U14">
-        <v>97.2469</v>
+        <v>97.25</v>
       </c>
       <c r="V14">
-        <v>97.64999999999999</v>
+        <v>97.6534</v>
       </c>
       <c r="W14">
-        <v>49.9193</v>
+        <v>49.9192</v>
       </c>
       <c r="X14" s="2">
-        <v>18.4286</v>
+        <v>18.4303</v>
       </c>
       <c r="Y14" s="2">
         <v>15.5476</v>
       </c>
       <c r="Z14">
-        <v>34.2077</v>
+        <v>34.2045</v>
       </c>
       <c r="AA14">
-        <v>40.5465</v>
+        <v>40.5466</v>
       </c>
       <c r="AB14">
-        <v>162.028</v>
+        <v>133.671</v>
       </c>
       <c r="AC14">
-        <v>138.597</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>47.6626</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>235.955</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>230.821</v>
+        <v>130.489</v>
+      </c>
+      <c r="AD14">
+        <v>49.6819</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>14.9391</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>12.8761</v>
       </c>
       <c r="AG14">
-        <v>2.09786</v>
+        <v>33.1346</v>
       </c>
       <c r="AH14">
-        <v>2.14452</v>
+        <v>38.4434</v>
       </c>
       <c r="AI14">
-        <v>-1685.1</v>
+        <v>134.056</v>
       </c>
       <c r="AJ14">
-        <v>-2176.87</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>33.8144</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>236.65</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>231.42</v>
+        <v>130.876</v>
+      </c>
+      <c r="AK14">
+        <v>49.6821</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>14.941</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>12.8855</v>
       </c>
       <c r="AN14">
-        <v>2.0917</v>
+        <v>33.1303</v>
       </c>
       <c r="AO14">
-        <v>2.13897</v>
+        <v>38.4153</v>
       </c>
       <c r="AP14">
-        <v>60.8653</v>
+        <v>60.8688</v>
       </c>
       <c r="AQ14">
-        <v>60.9789</v>
+        <v>60.9798</v>
       </c>
       <c r="AR14">
-        <v>50.0115</v>
+        <v>50.0114</v>
       </c>
       <c r="AS14" s="2">
-        <v>4.68509</v>
+        <v>4.68354</v>
       </c>
       <c r="AT14" s="2">
-        <v>3.8571</v>
+        <v>3.85911</v>
       </c>
       <c r="AU14">
-        <v>100.916</v>
+        <v>100.949</v>
       </c>
       <c r="AV14">
-        <v>122.579</v>
+        <v>122.515</v>
       </c>
       <c r="AW14">
-        <v>70.4884</v>
+        <v>70.4901</v>
       </c>
       <c r="AX14">
-        <v>70.0194</v>
+        <v>70.0201</v>
       </c>
       <c r="AY14">
-        <v>49.9534</v>
+        <v>49.9532</v>
       </c>
       <c r="AZ14" s="2">
-        <v>9.538360000000001</v>
+        <v>9.538120000000001</v>
       </c>
       <c r="BA14" s="2">
-        <v>5.719</v>
+        <v>5.718870000000001</v>
       </c>
       <c r="BB14">
-        <v>49.5683</v>
+        <v>49.5695</v>
       </c>
       <c r="BC14">
-        <v>82.6718</v>
-      </c>
-      <c r="BD14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ14" s="4" t="s">
+        <v>82.6737</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK14">
-        <v>98.31960000000001</v>
+        <v>98.3216</v>
       </c>
       <c r="BL14">
-        <v>96.72499999999999</v>
+        <v>96.72670000000001</v>
       </c>
       <c r="BM14">
-        <v>49.8408</v>
+        <v>49.8407</v>
       </c>
       <c r="BN14" s="2">
-        <v>23.7642</v>
+        <v>23.7625</v>
       </c>
       <c r="BO14" s="2">
-        <v>13.0512</v>
+        <v>13.052</v>
       </c>
       <c r="BP14">
-        <v>20.8296</v>
+        <v>20.8311</v>
       </c>
       <c r="BQ14">
-        <v>37.9274</v>
+        <v>37.9253</v>
       </c>
     </row>
     <row r="15" spans="1:69">
@@ -3843,154 +3829,154 @@
         <v>112</v>
       </c>
       <c r="T15">
-        <v>106.798</v>
+        <v>106.803</v>
       </c>
       <c r="U15">
-        <v>106.194</v>
+        <v>106.203</v>
       </c>
       <c r="V15">
-        <v>106.496</v>
+        <v>106.503</v>
       </c>
       <c r="W15">
-        <v>49.9399</v>
+        <v>49.9396</v>
       </c>
       <c r="X15" s="2">
-        <v>21.2797</v>
+        <v>21.2789</v>
       </c>
       <c r="Y15" s="2">
-        <v>18.125</v>
+        <v>18.1329</v>
       </c>
       <c r="Z15">
-        <v>25.3763</v>
+        <v>25.3773</v>
       </c>
       <c r="AA15">
-        <v>29.7931</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>353.725</v>
+        <v>29.7801</v>
+      </c>
+      <c r="AB15">
+        <v>146.912</v>
       </c>
       <c r="AC15">
-        <v>156.38</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>30.2653</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>243.392</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>234.344</v>
+        <v>144.039</v>
+      </c>
+      <c r="AD15">
+        <v>49.7127</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>17.6311</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>14.7235</v>
       </c>
       <c r="AG15">
-        <v>1.66398</v>
+        <v>22.9707</v>
       </c>
       <c r="AH15">
-        <v>1.72823</v>
+        <v>27.507</v>
       </c>
       <c r="AI15">
-        <v>-2257.09</v>
+        <v>147.297</v>
       </c>
       <c r="AJ15">
-        <v>-2752.06</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>5.22269</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>244.611</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>235.024</v>
+        <v>144.425</v>
+      </c>
+      <c r="AK15">
+        <v>49.7129</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>17.6333</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>14.7271</v>
       </c>
       <c r="AN15">
-        <v>1.65569</v>
+        <v>22.9679</v>
       </c>
       <c r="AO15">
-        <v>1.72323</v>
+        <v>27.5003</v>
       </c>
       <c r="AP15">
-        <v>63.1745</v>
+        <v>63.18530000000001</v>
       </c>
       <c r="AQ15">
-        <v>63.4517</v>
+        <v>63.45630000000001</v>
       </c>
       <c r="AR15">
-        <v>50.0278</v>
+        <v>50.0271</v>
       </c>
       <c r="AS15" s="2">
-        <v>5.46264</v>
+        <v>5.464630000000001</v>
       </c>
       <c r="AT15" s="2">
-        <v>4.66117</v>
+        <v>4.66051</v>
       </c>
       <c r="AU15">
-        <v>74.14</v>
+        <v>74.113</v>
       </c>
       <c r="AV15">
-        <v>86.88800000000001</v>
+        <v>86.9003</v>
       </c>
       <c r="AW15">
-        <v>74.97450000000001</v>
+        <v>74.9837</v>
       </c>
       <c r="AX15">
-        <v>74.2825</v>
+        <v>74.29089999999999</v>
       </c>
       <c r="AY15">
-        <v>49.9309</v>
+        <v>49.9307</v>
       </c>
       <c r="AZ15" s="2">
-        <v>11.6503</v>
+        <v>11.6507</v>
       </c>
       <c r="BA15" s="2">
-        <v>6.83096</v>
+        <v>6.830520000000001</v>
       </c>
       <c r="BB15">
-        <v>34.7632</v>
+        <v>34.7619</v>
       </c>
       <c r="BC15">
-        <v>59.2889</v>
-      </c>
-      <c r="BD15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ15" s="4" t="s">
+        <v>59.2927</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ15" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK15">
-        <v>107.284</v>
+        <v>107.292</v>
       </c>
       <c r="BL15">
-        <v>105.518</v>
+        <v>105.527</v>
       </c>
       <c r="BM15">
-        <v>49.8236</v>
+        <v>49.8234</v>
       </c>
       <c r="BN15" s="2">
-        <v>24.3839</v>
+        <v>24.3831</v>
       </c>
       <c r="BO15" s="2">
-        <v>15.4444</v>
+        <v>15.4435</v>
       </c>
       <c r="BP15">
-        <v>16.6093</v>
+        <v>16.6098</v>
       </c>
       <c r="BQ15">
-        <v>26.2231</v>
+        <v>26.2246</v>
       </c>
     </row>
     <row r="16" spans="1:69">
@@ -4052,154 +4038,154 @@
         <v>112</v>
       </c>
       <c r="T16">
-        <v>106.173</v>
+        <v>106.182</v>
       </c>
       <c r="U16">
-        <v>105.371</v>
+        <v>105.384</v>
       </c>
       <c r="V16">
-        <v>105.772</v>
+        <v>105.783</v>
       </c>
       <c r="W16">
-        <v>49.9205</v>
+        <v>49.9201</v>
       </c>
       <c r="X16" s="2">
-        <v>20.7022</v>
+        <v>20.6941</v>
       </c>
       <c r="Y16" s="2">
-        <v>16.6596</v>
+        <v>16.659</v>
       </c>
       <c r="Z16">
-        <v>26.0841</v>
+        <v>26.0943</v>
       </c>
       <c r="AA16">
-        <v>32.4138</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>352.21</v>
+        <v>32.4149</v>
+      </c>
+      <c r="AB16">
+        <v>145.612</v>
       </c>
       <c r="AC16">
-        <v>152.733</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>30.052</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>241.58</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>231.407</v>
+        <v>142.774</v>
+      </c>
+      <c r="AD16">
+        <v>49.7163</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>16.8927</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>13.3881</v>
       </c>
       <c r="AG16">
-        <v>1.67646</v>
+        <v>23.9749</v>
       </c>
       <c r="AH16">
-        <v>1.75016</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>354.873</v>
+        <v>30.2508</v>
+      </c>
+      <c r="AI16">
+        <v>145.996</v>
       </c>
       <c r="AJ16">
-        <v>160.273</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>30.5397</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>242.815</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>232.07</v>
+        <v>143.16</v>
+      </c>
+      <c r="AK16">
+        <v>49.7165</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>16.8967</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>13.3984</v>
       </c>
       <c r="AN16">
-        <v>1.66793</v>
+        <v>23.9692</v>
       </c>
       <c r="AO16">
-        <v>1.74517</v>
+        <v>30.2274</v>
       </c>
       <c r="AP16">
-        <v>61.28749999999999</v>
+        <v>61.2985</v>
       </c>
       <c r="AQ16">
-        <v>61.63590000000001</v>
+        <v>61.64490000000001</v>
       </c>
       <c r="AR16">
-        <v>50.0348</v>
+        <v>50.0346</v>
       </c>
       <c r="AS16" s="2">
-        <v>4.49422</v>
+        <v>4.493200000000001</v>
       </c>
       <c r="AT16" s="2">
-        <v>3.79141</v>
+        <v>3.79266</v>
       </c>
       <c r="AU16">
-        <v>90.1157</v>
+        <v>90.13630000000001</v>
       </c>
       <c r="AV16">
-        <v>106.82</v>
+        <v>106.785</v>
       </c>
       <c r="AW16">
-        <v>73.1935</v>
+        <v>73.20410000000001</v>
       </c>
       <c r="AX16">
-        <v>72.48960000000001</v>
+        <v>72.4974</v>
       </c>
       <c r="AY16">
-        <v>49.9296</v>
+        <v>49.9294</v>
       </c>
       <c r="AZ16" s="2">
-        <v>11.0893</v>
+        <v>11.09</v>
       </c>
       <c r="BA16" s="2">
-        <v>6.16685</v>
+        <v>6.16699</v>
       </c>
       <c r="BB16">
-        <v>36.5217</v>
+        <v>36.5194</v>
       </c>
       <c r="BC16">
-        <v>65.6737</v>
-      </c>
-      <c r="BD16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
+        <v>65.6722</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK16">
-        <v>106.469</v>
+        <v>106.48</v>
       </c>
       <c r="BL16">
-        <v>105.115</v>
+        <v>105.121</v>
       </c>
       <c r="BM16">
-        <v>49.8645</v>
+        <v>49.8641</v>
       </c>
       <c r="BN16" s="2">
-        <v>23.963</v>
+        <v>23.9645</v>
       </c>
       <c r="BO16" s="2">
-        <v>13.8156</v>
+        <v>13.8187</v>
       </c>
       <c r="BP16">
-        <v>16.9011</v>
+        <v>16.9</v>
       </c>
       <c r="BQ16">
-        <v>29.3146</v>
+        <v>29.3081</v>
       </c>
     </row>
     <row r="17" spans="1:69">
@@ -4261,154 +4247,154 @@
         <v>123</v>
       </c>
       <c r="T17">
-        <v>115.177</v>
+        <v>115.194</v>
       </c>
       <c r="U17">
-        <v>114.295</v>
+        <v>114.305</v>
       </c>
       <c r="V17">
-        <v>114.736</v>
+        <v>114.749</v>
       </c>
       <c r="W17">
-        <v>49.9121</v>
+        <v>49.9111</v>
       </c>
       <c r="X17" s="2">
-        <v>22.6091</v>
+        <v>22.6071</v>
       </c>
       <c r="Y17" s="2">
-        <v>19.3267</v>
+        <v>19.3195</v>
       </c>
       <c r="Z17">
-        <v>23.8841</v>
+        <v>23.8863</v>
       </c>
       <c r="AA17">
-        <v>27.9406</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>365.952</v>
+        <v>27.951</v>
+      </c>
+      <c r="AB17">
+        <v>157.606</v>
       </c>
       <c r="AC17">
-        <v>173.607</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>30.7653</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>248.689</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>238.3</v>
+        <v>155.043</v>
+      </c>
+      <c r="AD17">
+        <v>49.7436</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>19.0425</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>16.2587</v>
       </c>
       <c r="AG17">
-        <v>1.62854</v>
+        <v>21.2682</v>
       </c>
       <c r="AH17">
-        <v>1.69954</v>
+        <v>24.9097</v>
       </c>
       <c r="AI17">
-        <v>-1631.87</v>
+        <v>157.989</v>
       </c>
       <c r="AJ17">
-        <v>-1663.01</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>98.84610000000001</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>250.372</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>239.07</v>
+        <v>155.428</v>
+      </c>
+      <c r="AK17">
+        <v>49.7438</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>19.0491</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>16.2644</v>
       </c>
       <c r="AN17">
-        <v>1.6176</v>
+        <v>21.2609</v>
       </c>
       <c r="AO17">
-        <v>1.69406</v>
+        <v>24.9009</v>
       </c>
       <c r="AP17">
-        <v>70.40830000000001</v>
+        <v>70.42200000000001</v>
       </c>
       <c r="AQ17">
-        <v>70.4937</v>
+        <v>70.4996</v>
       </c>
       <c r="AR17">
-        <v>50.0086</v>
+        <v>50.0078</v>
       </c>
       <c r="AS17" s="2">
-        <v>6.2216</v>
+        <v>6.22056</v>
       </c>
       <c r="AT17" s="2">
-        <v>5.233420000000001</v>
+        <v>5.23329</v>
       </c>
       <c r="AU17">
-        <v>65.0958</v>
+        <v>65.1066</v>
       </c>
       <c r="AV17">
-        <v>77.38720000000001</v>
+        <v>77.3892</v>
       </c>
       <c r="AW17">
-        <v>82.22020000000001</v>
+        <v>82.2346</v>
       </c>
       <c r="AX17">
-        <v>81.508</v>
+        <v>81.51430000000001</v>
       </c>
       <c r="AY17">
-        <v>49.9288</v>
+        <v>49.928</v>
       </c>
       <c r="AZ17" s="2">
-        <v>11.6839</v>
+        <v>11.6837</v>
       </c>
       <c r="BA17" s="2">
-        <v>7.0614</v>
+        <v>7.06119</v>
       </c>
       <c r="BB17">
-        <v>34.663</v>
+        <v>34.6637</v>
       </c>
       <c r="BC17">
-        <v>57.3541</v>
-      </c>
-      <c r="BD17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ17" s="4" t="s">
+        <v>57.3557</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK17">
-        <v>114.968</v>
+        <v>114.982</v>
       </c>
       <c r="BL17">
-        <v>113.527</v>
+        <v>113.532</v>
       </c>
       <c r="BM17">
-        <v>49.8559</v>
+        <v>49.8549</v>
       </c>
       <c r="BN17" s="2">
-        <v>24.1813</v>
+        <v>24.1796</v>
       </c>
       <c r="BO17" s="2">
-        <v>15.9433</v>
+        <v>15.9382</v>
       </c>
       <c r="BP17">
-        <v>16.7485</v>
+        <v>16.7497</v>
       </c>
       <c r="BQ17">
-        <v>25.4026</v>
+        <v>25.4107</v>
       </c>
     </row>
     <row r="18" spans="1:69">
@@ -4470,154 +4456,154 @@
         <v>123</v>
       </c>
       <c r="T18">
-        <v>114.253</v>
+        <v>114.258</v>
       </c>
       <c r="U18">
-        <v>113.08</v>
+        <v>113.086</v>
       </c>
       <c r="V18">
-        <v>113.666</v>
+        <v>113.672</v>
       </c>
       <c r="W18">
-        <v>49.8834</v>
+        <v>49.8831</v>
       </c>
       <c r="X18" s="2">
-        <v>21.9373</v>
+        <v>21.9369</v>
       </c>
       <c r="Y18" s="2">
-        <v>17.7886</v>
+        <v>17.7899</v>
       </c>
       <c r="Z18">
-        <v>24.6156</v>
+        <v>24.616</v>
       </c>
       <c r="AA18">
-        <v>30.3564</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>364.072</v>
+        <v>30.3543</v>
+      </c>
+      <c r="AB18">
+        <v>155.778</v>
       </c>
       <c r="AC18">
-        <v>165.866</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>30.1792</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>246.586</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>234.999</v>
+        <v>153.378</v>
+      </c>
+      <c r="AD18">
+        <v>49.7599</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>18.1953</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>14.8251</v>
       </c>
       <c r="AG18">
-        <v>1.64243</v>
+        <v>22.2585</v>
       </c>
       <c r="AH18">
-        <v>1.72341</v>
+        <v>27.3185</v>
       </c>
       <c r="AI18">
-        <v>-2152.83</v>
+        <v>156.16</v>
       </c>
       <c r="AJ18">
-        <v>-2643.24</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>1.84802</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>248.242</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>235.698</v>
+        <v>153.762</v>
+      </c>
+      <c r="AK18">
+        <v>49.7601</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>18.1952</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>14.8298</v>
       </c>
       <c r="AN18">
-        <v>1.63147</v>
+        <v>22.2587</v>
       </c>
       <c r="AO18">
-        <v>1.7183</v>
+        <v>27.3099</v>
       </c>
       <c r="AP18">
-        <v>68.2128</v>
+        <v>68.21470000000001</v>
       </c>
       <c r="AQ18">
-        <v>68.26859999999999</v>
+        <v>68.26909999999999</v>
       </c>
       <c r="AR18">
-        <v>50.0056</v>
+        <v>50.0053</v>
       </c>
       <c r="AS18" s="2">
-        <v>5.04415</v>
+        <v>5.04545</v>
       </c>
       <c r="AT18" s="2">
-        <v>4.187650000000001</v>
+        <v>4.18601</v>
       </c>
       <c r="AU18">
-        <v>80.291</v>
+        <v>80.27030000000001</v>
       </c>
       <c r="AV18">
-        <v>96.7129</v>
+        <v>96.7509</v>
       </c>
       <c r="AW18">
-        <v>80.1529</v>
+        <v>80.15300000000001</v>
       </c>
       <c r="AX18">
-        <v>79.30800000000001</v>
+        <v>79.3074</v>
       </c>
       <c r="AY18">
-        <v>49.9156</v>
+        <v>49.9153</v>
       </c>
       <c r="AZ18" s="2">
-        <v>11.0962</v>
+        <v>11.0963</v>
       </c>
       <c r="BA18" s="2">
-        <v>6.38844</v>
+        <v>6.38734</v>
       </c>
       <c r="BB18">
-        <v>36.4988</v>
+        <v>36.4985</v>
       </c>
       <c r="BC18">
-        <v>63.3958</v>
-      </c>
-      <c r="BD18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ18" s="4" t="s">
+        <v>63.4066</v>
+      </c>
+      <c r="BD18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK18">
         <v>113.906</v>
       </c>
       <c r="BL18">
-        <v>112.898</v>
+        <v>112.897</v>
       </c>
       <c r="BM18">
-        <v>49.8994</v>
+        <v>49.899</v>
       </c>
       <c r="BN18" s="2">
-        <v>23.7807</v>
+        <v>23.7773</v>
       </c>
       <c r="BO18" s="2">
-        <v>14.3558</v>
+        <v>14.356</v>
       </c>
       <c r="BP18">
-        <v>17.0306</v>
+        <v>17.033</v>
       </c>
       <c r="BQ18">
-        <v>28.2116</v>
+        <v>28.2112</v>
       </c>
     </row>
     <row r="19" spans="1:69">
@@ -4679,154 +4665,154 @@
         <v>112</v>
       </c>
       <c r="T19">
-        <v>94.87060000000001</v>
+        <v>94.87949999999999</v>
       </c>
       <c r="U19">
-        <v>93.762</v>
+        <v>93.771</v>
       </c>
       <c r="V19">
-        <v>94.3163</v>
+        <v>94.3252</v>
       </c>
       <c r="W19">
-        <v>49.8892</v>
+        <v>49.8891</v>
       </c>
       <c r="X19" s="2">
-        <v>15.7091</v>
+        <v>15.7081</v>
       </c>
       <c r="Y19" s="2">
-        <v>17.8988</v>
+        <v>17.8943</v>
       </c>
       <c r="Z19">
-        <v>40.1295</v>
+        <v>40.1321</v>
       </c>
       <c r="AA19">
-        <v>35.2202</v>
+        <v>35.2291</v>
       </c>
       <c r="AB19">
-        <v>140.584</v>
+        <v>131.14</v>
       </c>
       <c r="AC19">
-        <v>144.334</v>
+        <v>126.816</v>
       </c>
       <c r="AD19">
-        <v>50.3751</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>230.911</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>234.383</v>
+        <v>49.5673</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>13.0894</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>14.5823</v>
       </c>
       <c r="AG19">
-        <v>2.14368</v>
+        <v>37.8169</v>
       </c>
       <c r="AH19">
-        <v>2.11192</v>
+        <v>33.9452</v>
       </c>
       <c r="AI19">
-        <v>-1852.85</v>
+        <v>131.526</v>
       </c>
       <c r="AJ19">
-        <v>-1753.91</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>89.0099</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>231.517</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>235.032</v>
+        <v>127.202</v>
+      </c>
+      <c r="AK19">
+        <v>49.5673</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>13.0955</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>14.5897</v>
       </c>
       <c r="AN19">
-        <v>2.13807</v>
+        <v>37.7992</v>
       </c>
       <c r="AO19">
-        <v>2.1061</v>
+        <v>33.9281</v>
       </c>
       <c r="AP19">
-        <v>57.9178</v>
+        <v>57.9221</v>
       </c>
       <c r="AQ19">
-        <v>58.5653</v>
+        <v>58.569</v>
       </c>
       <c r="AR19">
-        <v>50.0647</v>
+        <v>50.0645</v>
       </c>
       <c r="AS19" s="2">
-        <v>4.65396</v>
+        <v>4.65606</v>
       </c>
       <c r="AT19" s="2">
-        <v>5.08491</v>
+        <v>5.08503</v>
       </c>
       <c r="AU19">
-        <v>101.591</v>
+        <v>101.545</v>
       </c>
       <c r="AV19">
-        <v>92.98099999999999</v>
+        <v>92.97880000000001</v>
       </c>
       <c r="AW19">
-        <v>67.26169999999999</v>
+        <v>67.26639999999999</v>
       </c>
       <c r="AX19">
-        <v>67.96720000000001</v>
+        <v>67.9704</v>
       </c>
       <c r="AY19">
-        <v>50.0704</v>
+        <v>50.0702</v>
       </c>
       <c r="AZ19" s="2">
-        <v>7.656870000000001</v>
+        <v>7.657010000000001</v>
       </c>
       <c r="BA19" s="2">
-        <v>7.78187</v>
+        <v>7.781060000000001</v>
       </c>
       <c r="BB19">
-        <v>61.7484</v>
+        <v>61.7474</v>
       </c>
       <c r="BC19">
-        <v>60.7566</v>
-      </c>
-      <c r="BD19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
+        <v>60.7629</v>
+      </c>
+      <c r="BD19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ19" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK19">
-        <v>93.9704</v>
+        <v>93.9768</v>
       </c>
       <c r="BL19">
-        <v>94.7367</v>
+        <v>94.7407</v>
       </c>
       <c r="BM19">
-        <v>50.0764</v>
+        <v>50.0762</v>
       </c>
       <c r="BN19" s="2">
-        <v>15.811</v>
+        <v>15.8085</v>
       </c>
       <c r="BO19" s="2">
-        <v>21.38</v>
+        <v>21.3808</v>
       </c>
       <c r="BP19">
-        <v>31.3074</v>
+        <v>31.3122</v>
       </c>
       <c r="BQ19">
-        <v>23.1525</v>
+        <v>23.1517</v>
       </c>
     </row>
     <row r="20" spans="1:69">
@@ -4888,154 +4874,154 @@
         <v>112</v>
       </c>
       <c r="T20">
-        <v>89.7109</v>
+        <v>89.7101</v>
       </c>
       <c r="U20">
-        <v>88.5651</v>
+        <v>88.5634</v>
       </c>
       <c r="V20">
-        <v>89.13800000000001</v>
+        <v>89.13680000000001</v>
       </c>
       <c r="W20">
-        <v>49.8855</v>
+        <v>49.8858</v>
       </c>
       <c r="X20" s="2">
-        <v>14.3873</v>
+        <v>14.3875</v>
       </c>
       <c r="Y20" s="2">
         <v>16.3692</v>
       </c>
       <c r="Z20">
-        <v>43.8164</v>
+        <v>43.8159</v>
       </c>
       <c r="AA20">
         <v>38.5113</v>
       </c>
       <c r="AB20">
-        <v>129.454</v>
+        <v>122.18</v>
       </c>
       <c r="AC20">
-        <v>131.487</v>
+        <v>120.341</v>
       </c>
       <c r="AD20">
-        <v>50.2038</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>228.043</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>230.96</v>
+        <v>49.8161</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>11.7748</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>13.1068</v>
       </c>
       <c r="AG20">
-        <v>2.17064</v>
+        <v>42.039</v>
       </c>
       <c r="AH20">
-        <v>2.14323</v>
+        <v>37.7665</v>
       </c>
       <c r="AI20">
-        <v>133.406</v>
+        <v>122.566</v>
       </c>
       <c r="AJ20">
-        <v>140.373</v>
+        <v>120.726</v>
       </c>
       <c r="AK20">
-        <v>50.6975</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>228.707</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>231.588</v>
+        <v>49.816</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>11.7846</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>13.1122</v>
       </c>
       <c r="AN20">
-        <v>2.16434</v>
+        <v>42.0038</v>
       </c>
       <c r="AO20">
-        <v>2.13741</v>
+        <v>37.7512</v>
       </c>
       <c r="AP20">
-        <v>53.85080000000001</v>
+        <v>53.8458</v>
       </c>
       <c r="AQ20">
-        <v>54.2892</v>
+        <v>54.28810000000001</v>
       </c>
       <c r="AR20">
-        <v>50.044</v>
+        <v>50.0443</v>
       </c>
       <c r="AS20" s="2">
-        <v>3.56674</v>
+        <v>3.56613</v>
       </c>
       <c r="AT20" s="2">
-        <v>3.90747</v>
+        <v>3.90492</v>
       </c>
       <c r="AU20">
-        <v>132.558</v>
+        <v>132.581</v>
       </c>
       <c r="AV20">
-        <v>120.999</v>
+        <v>121.078</v>
       </c>
       <c r="AW20">
-        <v>62.6651</v>
+        <v>62.6576</v>
       </c>
       <c r="AX20">
-        <v>63.3958</v>
+        <v>63.3942</v>
       </c>
       <c r="AY20">
-        <v>50.0733</v>
+        <v>50.0737</v>
       </c>
       <c r="AZ20" s="2">
-        <v>6.945240000000001</v>
+        <v>6.94523</v>
       </c>
       <c r="BA20" s="2">
-        <v>7.057620000000001</v>
+        <v>7.05735</v>
       </c>
       <c r="BB20">
-        <v>68.0754</v>
+        <v>68.07550000000001</v>
       </c>
       <c r="BC20">
-        <v>66.9914</v>
-      </c>
-      <c r="BD20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ20" s="4" t="s">
+        <v>66.9939</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK20">
-        <v>87.97749999999999</v>
+        <v>87.9705</v>
       </c>
       <c r="BL20">
-        <v>90.1846</v>
+        <v>90.1832</v>
       </c>
       <c r="BM20">
-        <v>50.2209</v>
+        <v>50.2212</v>
       </c>
       <c r="BN20" s="2">
-        <v>14.3335</v>
+        <v>14.3339</v>
       </c>
       <c r="BO20" s="2">
-        <v>19.6855</v>
+        <v>19.6857</v>
       </c>
       <c r="BP20">
-        <v>34.5346</v>
+        <v>34.5335</v>
       </c>
       <c r="BQ20">
-        <v>25.1454</v>
+        <v>25.1452</v>
       </c>
     </row>
     <row r="21" spans="1:69">
@@ -5097,154 +5083,154 @@
         <v>123</v>
       </c>
       <c r="T21">
-        <v>103.355</v>
+        <v>103.364</v>
       </c>
       <c r="U21">
-        <v>102.352</v>
+        <v>102.357</v>
       </c>
       <c r="V21">
-        <v>102.854</v>
+        <v>102.86</v>
       </c>
       <c r="W21">
-        <v>49.8994</v>
+        <v>49.8992</v>
       </c>
       <c r="X21" s="2">
-        <v>17.0168</v>
+        <v>17.0155</v>
       </c>
       <c r="Y21" s="2">
-        <v>19.2005</v>
+        <v>19.1945</v>
       </c>
       <c r="Z21">
-        <v>37.0458</v>
+        <v>37.0485</v>
       </c>
       <c r="AA21">
-        <v>32.8325</v>
+        <v>32.8428</v>
       </c>
       <c r="AB21">
-        <v>-2264.58</v>
+        <v>142.848</v>
       </c>
       <c r="AC21">
-        <v>-2747.8</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>17.3864</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>234.483</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>238.501</v>
+        <v>137.809</v>
+      </c>
+      <c r="AD21">
+        <v>49.4962</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>14.519</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>16.1154</v>
       </c>
       <c r="AG21">
-        <v>2.11103</v>
+        <v>34.0933</v>
       </c>
       <c r="AH21">
-        <v>2.07546</v>
+        <v>30.7159</v>
       </c>
       <c r="AI21">
-        <v>-1753.46</v>
+        <v>143.235</v>
       </c>
       <c r="AJ21">
-        <v>-2162.51</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>91.2453</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>235.111</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>239.238</v>
+        <v>138.194</v>
+      </c>
+      <c r="AK21">
+        <v>49.4961</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>14.5251</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>16.1187</v>
       </c>
       <c r="AN21">
-        <v>2.10539</v>
+        <v>34.079</v>
       </c>
       <c r="AO21">
-        <v>2.06907</v>
+        <v>30.7097</v>
       </c>
       <c r="AP21">
-        <v>65.08659999999999</v>
+        <v>65.09450000000001</v>
       </c>
       <c r="AQ21">
-        <v>66.06320000000001</v>
+        <v>66.06970000000001</v>
       </c>
       <c r="AR21">
-        <v>50.0976</v>
+        <v>50.0975</v>
       </c>
       <c r="AS21" s="2">
-        <v>5.37792</v>
+        <v>5.37766</v>
       </c>
       <c r="AT21" s="2">
-        <v>5.875920000000001</v>
+        <v>5.875100000000001</v>
       </c>
       <c r="AU21">
-        <v>87.91500000000001</v>
+        <v>87.91930000000001</v>
       </c>
       <c r="AV21">
-        <v>80.464</v>
+        <v>80.4752</v>
       </c>
       <c r="AW21">
-        <v>74.58150000000001</v>
+        <v>74.5898</v>
       </c>
       <c r="AX21">
-        <v>75.5433</v>
+        <v>75.5492</v>
       </c>
       <c r="AY21">
-        <v>50.0962</v>
+        <v>50.096</v>
       </c>
       <c r="AZ21" s="2">
-        <v>7.76055</v>
+        <v>7.75994</v>
       </c>
       <c r="BA21" s="2">
-        <v>8.02158</v>
+        <v>8.0215</v>
       </c>
       <c r="BB21">
-        <v>60.9236</v>
+        <v>60.9283</v>
       </c>
       <c r="BC21">
-        <v>58.941</v>
-      </c>
-      <c r="BD21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ21" s="4" t="s">
+        <v>58.9416</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK21">
-        <v>102.088</v>
+        <v>102.095</v>
       </c>
       <c r="BL21">
-        <v>102.953</v>
+        <v>102.958</v>
       </c>
       <c r="BM21">
-        <v>50.0865</v>
+        <v>50.0864</v>
       </c>
       <c r="BN21" s="2">
-        <v>16.0449</v>
+        <v>16.0481</v>
       </c>
       <c r="BO21" s="2">
-        <v>21.8267</v>
+        <v>21.826</v>
       </c>
       <c r="BP21">
-        <v>30.851</v>
+        <v>30.8448</v>
       </c>
       <c r="BQ21">
-        <v>22.6787</v>
+        <v>22.6794</v>
       </c>
     </row>
     <row r="22" spans="1:69">
@@ -5306,154 +5292,154 @@
         <v>123</v>
       </c>
       <c r="T22">
-        <v>97.58800000000001</v>
+        <v>97.5939</v>
       </c>
       <c r="U22">
-        <v>96.6459</v>
+        <v>96.65050000000001</v>
       </c>
       <c r="V22">
-        <v>97.117</v>
+        <v>97.12220000000001</v>
       </c>
       <c r="W22">
-        <v>49.9059</v>
+        <v>49.9057</v>
       </c>
       <c r="X22" s="2">
-        <v>15.6125</v>
+        <v>15.6169</v>
       </c>
       <c r="Y22" s="2">
-        <v>17.6017</v>
+        <v>17.6004</v>
       </c>
       <c r="Z22">
-        <v>40.3779</v>
+        <v>40.3666</v>
       </c>
       <c r="AA22">
-        <v>35.8147</v>
+        <v>35.8174</v>
       </c>
       <c r="AB22">
-        <v>142.429</v>
+        <v>132.916</v>
       </c>
       <c r="AC22">
-        <v>148.508</v>
+        <v>130.759</v>
       </c>
       <c r="AD22">
-        <v>50.6082</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>231.308</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>234.624</v>
+        <v>49.7841</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>13.0802</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>14.5251</v>
       </c>
       <c r="AG22">
-        <v>2.14</v>
+        <v>37.8434</v>
       </c>
       <c r="AH22">
-        <v>2.10976</v>
+        <v>34.0789</v>
       </c>
       <c r="AI22">
-        <v>-2228.87</v>
+        <v>133.301</v>
       </c>
       <c r="AJ22">
-        <v>-2714.03</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>28.3144</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>231.908</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>235.266</v>
+        <v>131.145</v>
+      </c>
+      <c r="AK22">
+        <v>49.7841</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>13.093</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>14.5288</v>
       </c>
       <c r="AN22">
-        <v>2.13447</v>
+        <v>37.8064</v>
       </c>
       <c r="AO22">
-        <v>2.104</v>
+        <v>34.0702</v>
       </c>
       <c r="AP22">
-        <v>60.5107</v>
+        <v>60.51579999999999</v>
       </c>
       <c r="AQ22">
-        <v>61.2206</v>
+        <v>61.2261</v>
       </c>
       <c r="AR22">
         <v>50.071</v>
       </c>
       <c r="AS22" s="2">
-        <v>4.05591</v>
+        <v>4.05723</v>
       </c>
       <c r="AT22" s="2">
-        <v>4.4507</v>
+        <v>4.4491</v>
       </c>
       <c r="AU22">
-        <v>116.571</v>
+        <v>116.533</v>
       </c>
       <c r="AV22">
-        <v>106.23</v>
+        <v>106.269</v>
       </c>
       <c r="AW22">
-        <v>69.4205</v>
+        <v>69.42450000000001</v>
       </c>
       <c r="AX22">
-        <v>70.4705</v>
+        <v>70.474</v>
       </c>
       <c r="AY22">
-        <v>50.105</v>
+        <v>50.1049</v>
       </c>
       <c r="AZ22" s="2">
-        <v>7.03526</v>
+        <v>7.03514</v>
       </c>
       <c r="BA22" s="2">
-        <v>7.28684</v>
+        <v>7.28695</v>
       </c>
       <c r="BB22">
-        <v>67.2043</v>
+        <v>67.2055</v>
       </c>
       <c r="BC22">
-        <v>64.8841</v>
-      </c>
-      <c r="BD22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ22" s="4" t="s">
+        <v>64.8831</v>
+      </c>
+      <c r="BD22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ22" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK22">
-        <v>95.4332</v>
+        <v>95.438</v>
       </c>
       <c r="BL22">
-        <v>98.06700000000001</v>
+        <v>98.07080000000001</v>
       </c>
       <c r="BM22">
-        <v>50.2633</v>
+        <v>50.2632</v>
       </c>
       <c r="BN22" s="2">
-        <v>14.5385</v>
+        <v>14.5383</v>
       </c>
       <c r="BO22" s="2">
-        <v>20.1016</v>
+        <v>20.1011</v>
       </c>
       <c r="BP22">
-        <v>34.0475</v>
+        <v>34.0481</v>
       </c>
       <c r="BQ22">
-        <v>24.625</v>
+        <v>24.6255</v>
       </c>
     </row>
     <row r="23" spans="1:69">
@@ -5515,154 +5501,154 @@
         <v>112</v>
       </c>
       <c r="T23">
-        <v>107.502</v>
+        <v>107.514</v>
       </c>
       <c r="U23">
-        <v>105.625</v>
+        <v>105.636</v>
       </c>
       <c r="V23">
-        <v>106.563</v>
+        <v>106.575</v>
       </c>
       <c r="W23">
-        <v>49.8119</v>
+        <v>49.8121</v>
       </c>
       <c r="X23" s="2">
-        <v>17.7321</v>
+        <v>17.7348</v>
       </c>
       <c r="Y23" s="2">
-        <v>21.1393</v>
+        <v>21.1404</v>
       </c>
       <c r="Z23">
-        <v>30.4532</v>
+        <v>30.4487</v>
       </c>
       <c r="AA23">
-        <v>25.5449</v>
+        <v>25.5435</v>
       </c>
       <c r="AB23">
-        <v>160.203</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>351.829</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>69.1636</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>234.724</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>242.549</v>
+        <v>146.049</v>
+      </c>
+      <c r="AC23">
+        <v>145.537</v>
+      </c>
+      <c r="AD23">
+        <v>49.9487</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>14.8531</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>17.5461</v>
       </c>
       <c r="AG23">
-        <v>1.72543</v>
+        <v>27.2671</v>
       </c>
       <c r="AH23">
-        <v>1.66977</v>
+        <v>23.082</v>
       </c>
       <c r="AI23">
-        <v>-2650.97</v>
+        <v>146.435</v>
       </c>
       <c r="AJ23">
-        <v>-2645.39</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>55.6715</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>235.414</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>243.66</v>
+        <v>145.921</v>
+      </c>
+      <c r="AK23">
+        <v>49.9485</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>14.8636</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>17.5475</v>
       </c>
       <c r="AN23">
-        <v>1.72038</v>
+        <v>27.2477</v>
       </c>
       <c r="AO23">
-        <v>1.66215</v>
+        <v>23.0802</v>
       </c>
       <c r="AP23">
-        <v>63.1858</v>
+        <v>63.1961</v>
       </c>
       <c r="AQ23">
-        <v>63.7762</v>
+        <v>63.7888</v>
       </c>
       <c r="AR23">
-        <v>50.0591</v>
+        <v>50.0594</v>
       </c>
       <c r="AS23" s="2">
-        <v>4.79481</v>
+        <v>4.793699999999999</v>
       </c>
       <c r="AT23" s="2">
-        <v>5.33294</v>
+        <v>5.33101</v>
       </c>
       <c r="AU23">
-        <v>84.4663</v>
+        <v>84.4859</v>
       </c>
       <c r="AV23">
-        <v>75.943</v>
+        <v>75.9706</v>
       </c>
       <c r="AW23">
-        <v>74.14200000000001</v>
+        <v>74.15130000000001</v>
       </c>
       <c r="AX23">
-        <v>74.99160000000001</v>
+        <v>75.00320000000001</v>
       </c>
       <c r="AY23">
-        <v>50.0852</v>
+        <v>50.0853</v>
       </c>
       <c r="AZ23" s="2">
-        <v>8.306519999999999</v>
+        <v>8.305619999999999</v>
       </c>
       <c r="BA23" s="2">
-        <v>9.204040000000001</v>
+        <v>9.20425</v>
       </c>
       <c r="BB23">
-        <v>48.7569</v>
+        <v>48.7622</v>
       </c>
       <c r="BC23">
-        <v>44.0024</v>
-      </c>
-      <c r="BD23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ23" s="4" t="s">
+        <v>44.0014</v>
+      </c>
+      <c r="BD23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK23">
-        <v>104.413</v>
+        <v>104.424</v>
       </c>
       <c r="BL23">
-        <v>107.924</v>
+        <v>107.936</v>
       </c>
       <c r="BM23">
-        <v>50.3511</v>
+        <v>50.3514</v>
       </c>
       <c r="BN23" s="2">
-        <v>14.6645</v>
+        <v>14.6648</v>
       </c>
       <c r="BO23" s="2">
-        <v>25.1753</v>
+        <v>25.177</v>
       </c>
       <c r="BP23">
-        <v>27.6176</v>
+        <v>27.6172</v>
       </c>
       <c r="BQ23">
-        <v>16.0872</v>
+        <v>16.0861</v>
       </c>
     </row>
     <row r="24" spans="1:69">
@@ -5724,151 +5710,151 @@
         <v>112</v>
       </c>
       <c r="T24">
-        <v>106.11</v>
+        <v>106.108</v>
       </c>
       <c r="U24">
-        <v>103.726</v>
+        <v>103.729</v>
       </c>
       <c r="V24">
-        <v>104.918</v>
+        <v>104.919</v>
       </c>
       <c r="W24">
         <v>49.7618</v>
       </c>
       <c r="X24" s="2">
-        <v>16.4789</v>
+        <v>16.4758</v>
       </c>
       <c r="Y24" s="2">
-        <v>19.9379</v>
+        <v>19.9437</v>
       </c>
       <c r="Z24">
-        <v>32.7691</v>
+        <v>32.7753</v>
       </c>
       <c r="AA24">
-        <v>27.0841</v>
+        <v>27.0762</v>
       </c>
       <c r="AB24">
-        <v>-1845.73</v>
+        <v>142.328</v>
       </c>
       <c r="AC24">
-        <v>-1674.38</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>98.9576</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>232.012</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>239.536</v>
+        <v>144.432</v>
+      </c>
+      <c r="AD24">
+        <v>50.2103</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>13.6536</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>16.4249</v>
       </c>
       <c r="AG24">
-        <v>1.7456</v>
+        <v>29.6625</v>
       </c>
       <c r="AH24">
-        <v>1.69077</v>
+        <v>24.6576</v>
       </c>
       <c r="AI24">
-        <v>166.602</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>352.6</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>68.6035</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>232.701</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>240.503</v>
+        <v>142.713</v>
+      </c>
+      <c r="AJ24">
+        <v>144.816</v>
+      </c>
+      <c r="AK24">
+        <v>50.2103</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>13.659</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>16.4299</v>
       </c>
       <c r="AN24">
-        <v>1.74043</v>
+        <v>29.6507</v>
       </c>
       <c r="AO24">
-        <v>1.68397</v>
+        <v>24.6502</v>
       </c>
       <c r="AP24">
-        <v>61.07260000000001</v>
+        <v>61.0713</v>
       </c>
       <c r="AQ24">
-        <v>61.38890000000001</v>
+        <v>61.3899</v>
       </c>
       <c r="AR24">
-        <v>50.0316</v>
+        <v>50.0318</v>
       </c>
       <c r="AS24" s="2">
-        <v>3.88871</v>
+        <v>3.88839</v>
       </c>
       <c r="AT24" s="2">
-        <v>4.32985</v>
+        <v>4.32857</v>
       </c>
       <c r="AU24">
-        <v>104.148</v>
+        <v>104.156</v>
       </c>
       <c r="AV24">
-        <v>93.5368</v>
+        <v>93.5643</v>
       </c>
       <c r="AW24">
-        <v>71.88650000000001</v>
+        <v>71.88520000000001</v>
       </c>
       <c r="AX24">
-        <v>72.6442</v>
+        <v>72.645</v>
       </c>
       <c r="AY24">
-        <v>50.0758</v>
+        <v>50.0759</v>
       </c>
       <c r="AZ24" s="2">
-        <v>7.59089</v>
+        <v>7.59035</v>
       </c>
       <c r="BA24" s="2">
-        <v>8.541870000000001</v>
+        <v>8.540620000000001</v>
       </c>
       <c r="BB24">
-        <v>53.3534</v>
+        <v>53.3572</v>
       </c>
       <c r="BC24">
-        <v>47.4135</v>
-      </c>
-      <c r="BD24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ24" s="4" t="s">
+        <v>47.4204</v>
+      </c>
+      <c r="BD24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ24" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK24">
-        <v>102.251</v>
+        <v>102.249</v>
       </c>
       <c r="BL24">
-        <v>107.005</v>
+        <v>107.008</v>
       </c>
       <c r="BM24">
-        <v>50.4755</v>
+        <v>50.4759</v>
       </c>
       <c r="BN24" s="2">
-        <v>13.6371</v>
+        <v>13.6394</v>
       </c>
       <c r="BO24" s="2">
-        <v>23.6648</v>
+        <v>23.6647</v>
       </c>
       <c r="BP24">
-        <v>29.6983</v>
+        <v>29.6933</v>
       </c>
       <c r="BQ24">
         <v>17.1141</v>
@@ -5933,154 +5919,154 @@
         <v>123</v>
       </c>
       <c r="T25">
-        <v>115.712</v>
+        <v>115.73</v>
       </c>
       <c r="U25">
-        <v>114.013</v>
+        <v>114.027</v>
       </c>
       <c r="V25">
-        <v>114.862</v>
+        <v>114.879</v>
       </c>
       <c r="W25">
-        <v>49.8299</v>
+        <v>49.8298</v>
       </c>
       <c r="X25" s="2">
-        <v>19.0086</v>
+        <v>18.9933</v>
       </c>
       <c r="Y25" s="2">
-        <v>22.4243</v>
+        <v>22.426</v>
       </c>
       <c r="Z25">
-        <v>28.4082</v>
+        <v>28.4311</v>
       </c>
       <c r="AA25">
-        <v>24.081</v>
+        <v>24.0792</v>
       </c>
       <c r="AB25">
-        <v>-821.561</v>
+        <v>157.235</v>
       </c>
       <c r="AC25">
-        <v>-635.6609999999999</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>68.5847</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>238.484</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>247.997</v>
+        <v>156.291</v>
+      </c>
+      <c r="AD25">
+        <v>49.9055</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>16.2772</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>19.0783</v>
       </c>
       <c r="AG25">
-        <v>1.69823</v>
+        <v>24.8814</v>
       </c>
       <c r="AH25">
-        <v>1.63308</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>362.946</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>366.5600000000001</v>
+        <v>21.2283</v>
+      </c>
+      <c r="AI25">
+        <v>157.621</v>
+      </c>
+      <c r="AJ25">
+        <v>156.675</v>
       </c>
       <c r="AK25">
-        <v>50.3611</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>239.263</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>249.559</v>
+        <v>49.9054</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>16.282</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>19.0791</v>
       </c>
       <c r="AN25">
-        <v>1.6927</v>
+        <v>24.8741</v>
       </c>
       <c r="AO25">
-        <v>1.62286</v>
+        <v>21.2274</v>
       </c>
       <c r="AP25">
-        <v>70.1863</v>
+        <v>70.19889999999999</v>
       </c>
       <c r="AQ25">
-        <v>71.0998</v>
+        <v>71.11240000000001</v>
       </c>
       <c r="AR25">
-        <v>50.0912</v>
+        <v>50.0914</v>
       </c>
       <c r="AS25" s="2">
-        <v>5.420710000000001</v>
+        <v>5.42329</v>
       </c>
       <c r="AT25" s="2">
-        <v>6.04292</v>
+        <v>6.04391</v>
       </c>
       <c r="AU25">
-        <v>74.7135</v>
+        <v>74.67789999999999</v>
       </c>
       <c r="AV25">
-        <v>67.0206</v>
+        <v>67.00960000000001</v>
       </c>
       <c r="AW25">
-        <v>81.2728</v>
+        <v>81.28670000000001</v>
       </c>
       <c r="AX25">
-        <v>82.41070000000001</v>
+        <v>82.42420000000001</v>
       </c>
       <c r="AY25">
         <v>50.1137</v>
       </c>
       <c r="AZ25" s="2">
-        <v>8.43488</v>
+        <v>8.435790000000001</v>
       </c>
       <c r="BA25" s="2">
-        <v>9.41586</v>
+        <v>9.41643</v>
       </c>
       <c r="BB25">
-        <v>48.0149</v>
+        <v>48.0098</v>
       </c>
       <c r="BC25">
-        <v>43.0125</v>
-      </c>
-      <c r="BD25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ25" s="4" t="s">
+        <v>43.0099</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ25" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK25">
-        <v>112.182</v>
+        <v>112.196</v>
       </c>
       <c r="BL25">
-        <v>115.989</v>
+        <v>116</v>
       </c>
       <c r="BM25">
-        <v>50.3806</v>
+        <v>50.3803</v>
       </c>
       <c r="BN25" s="2">
-        <v>14.7799</v>
+        <v>14.7795</v>
       </c>
       <c r="BO25" s="2">
-        <v>25.8996</v>
+        <v>25.9005</v>
       </c>
       <c r="BP25">
-        <v>27.4022</v>
+        <v>27.4027</v>
       </c>
       <c r="BQ25">
-        <v>15.6373</v>
+        <v>15.6367</v>
       </c>
     </row>
     <row r="26" spans="1:69">
@@ -6142,154 +6128,154 @@
         <v>123</v>
       </c>
       <c r="T26">
-        <v>113.911</v>
+        <v>113.912</v>
       </c>
       <c r="U26">
-        <v>111.779</v>
+        <v>111.782</v>
       </c>
       <c r="V26">
-        <v>112.845</v>
+        <v>112.847</v>
       </c>
       <c r="W26">
-        <v>49.7868</v>
+        <v>49.7871</v>
       </c>
       <c r="X26" s="2">
-        <v>17.669</v>
+        <v>17.6688</v>
       </c>
       <c r="Y26" s="2">
-        <v>21.1658</v>
+        <v>21.1638</v>
       </c>
       <c r="Z26">
-        <v>30.562</v>
+        <v>30.5623</v>
       </c>
       <c r="AA26">
-        <v>25.5129</v>
+        <v>25.5152</v>
       </c>
       <c r="AB26">
-        <v>167.873</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>362.146</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>69.4281</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>235.422</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>244.364</v>
+        <v>152.815</v>
+      </c>
+      <c r="AC26">
+        <v>154.88</v>
+      </c>
+      <c r="AD26">
+        <v>50.2066</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>14.9489</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>17.8521</v>
       </c>
       <c r="AG26">
-        <v>1.72032</v>
+        <v>27.0923</v>
       </c>
       <c r="AH26">
-        <v>1.65737</v>
+        <v>22.6864</v>
       </c>
       <c r="AI26">
-        <v>-1692.27</v>
+        <v>153.2</v>
       </c>
       <c r="AJ26">
-        <v>-2154.47</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>77.3396</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>236.147</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>245.679</v>
+        <v>155.265</v>
+      </c>
+      <c r="AK26">
+        <v>50.2066</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>14.9569</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>17.8563</v>
       </c>
       <c r="AN26">
-        <v>1.71503</v>
+        <v>27.0777</v>
       </c>
       <c r="AO26">
-        <v>1.64849</v>
+        <v>22.681</v>
       </c>
       <c r="AP26">
-        <v>67.7197</v>
+        <v>67.7242</v>
       </c>
       <c r="AQ26">
-        <v>68.28019999999999</v>
+        <v>68.2861</v>
       </c>
       <c r="AR26">
-        <v>50.056</v>
+        <v>50.0562</v>
       </c>
       <c r="AS26" s="2">
-        <v>4.32237</v>
+        <v>4.32229</v>
       </c>
       <c r="AT26" s="2">
-        <v>4.8433</v>
+        <v>4.84195</v>
       </c>
       <c r="AU26">
-        <v>93.6987</v>
+        <v>93.7003</v>
       </c>
       <c r="AV26">
-        <v>83.6206</v>
+        <v>83.6439</v>
       </c>
       <c r="AW26">
-        <v>78.61670000000001</v>
+        <v>78.6203</v>
       </c>
       <c r="AX26">
-        <v>79.7025</v>
+        <v>79.70830000000001</v>
       </c>
       <c r="AY26">
-        <v>50.1085</v>
+        <v>50.1087</v>
       </c>
       <c r="AZ26" s="2">
-        <v>7.71099</v>
+        <v>7.71197</v>
       </c>
       <c r="BA26" s="2">
-        <v>8.732990000000001</v>
+        <v>8.73241</v>
       </c>
       <c r="BB26">
-        <v>52.5225</v>
+        <v>52.5158</v>
       </c>
       <c r="BC26">
-        <v>46.3759</v>
-      </c>
-      <c r="BD26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ26" s="4" t="s">
+        <v>46.3789</v>
+      </c>
+      <c r="BD26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ26" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BK26">
-        <v>109.586</v>
+        <v>109.59</v>
       </c>
       <c r="BL26">
-        <v>114.954</v>
+        <v>114.961</v>
       </c>
       <c r="BM26">
-        <v>50.5366</v>
+        <v>50.537</v>
       </c>
       <c r="BN26" s="2">
-        <v>13.7802</v>
+        <v>13.7798</v>
       </c>
       <c r="BO26" s="2">
-        <v>24.259</v>
+        <v>24.2583</v>
       </c>
       <c r="BP26">
-        <v>29.39</v>
+        <v>29.3909</v>
       </c>
       <c r="BQ26">
-        <v>16.6948</v>
+        <v>16.6953</v>
       </c>
     </row>
     <row r="27" spans="1:69" s="1" customFormat="1">
@@ -6506,112 +6492,112 @@
         <v>141</v>
       </c>
       <c r="T28" s="1">
-        <v>80.3034</v>
+        <v>80.313</v>
       </c>
       <c r="U28" s="1">
-        <v>79.78100000000001</v>
+        <v>79.78870000000001</v>
       </c>
       <c r="V28" s="1">
-        <v>80.04220000000001</v>
+        <v>80.0509</v>
       </c>
       <c r="W28" s="1">
-        <v>49.7338</v>
+        <v>49.7339</v>
       </c>
       <c r="X28" s="2">
-        <v>13.5318</v>
+        <v>13.5311</v>
       </c>
       <c r="Y28" s="2">
-        <v>13.2598</v>
+        <v>13.2599</v>
       </c>
       <c r="Z28" s="1">
-        <v>22.8521</v>
+        <v>22.8588</v>
       </c>
       <c r="AA28" s="1">
-        <v>22.7196</v>
+        <v>22.7255</v>
       </c>
       <c r="AB28" s="1">
-        <v>-2649.09</v>
+        <v>110.865</v>
       </c>
       <c r="AC28" s="1">
-        <v>-2825.13</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>17.3864</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>227.611</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>226.979</v>
+        <v>108.084</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>49.4962</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>11.503</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>11.2196</v>
       </c>
       <c r="AG28" s="1">
-        <v>1.62854</v>
+        <v>20.8216</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.63308</v>
+        <v>20.9022</v>
       </c>
       <c r="AI28" s="1">
-        <v>-2760.28</v>
+        <v>111.25</v>
       </c>
       <c r="AJ28" s="1">
-        <v>-3175.54</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>1.84802</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>228.287</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>227.669</v>
+        <v>108.47</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>49.4961</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>11.5137</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>11.2324</v>
       </c>
       <c r="AN28" s="1">
-        <v>1.6176</v>
+        <v>20.8159</v>
       </c>
       <c r="AO28" s="1">
-        <v>1.62286</v>
+        <v>20.9007</v>
       </c>
       <c r="AP28" s="1">
-        <v>50.6104</v>
+        <v>50.6143</v>
       </c>
       <c r="AQ28" s="1">
-        <v>51.0594</v>
+        <v>51.06330000000001</v>
       </c>
       <c r="AR28" s="1">
-        <v>50.0056</v>
+        <v>50.0053</v>
       </c>
       <c r="AS28" s="2">
-        <v>3.56674</v>
+        <v>3.56613</v>
       </c>
       <c r="AT28" s="2">
-        <v>3.42876</v>
+        <v>3.42952</v>
       </c>
       <c r="AU28" s="1">
-        <v>65.0958</v>
+        <v>65.1066</v>
       </c>
       <c r="AV28" s="1">
-        <v>67.0206</v>
+        <v>67.00960000000001</v>
       </c>
       <c r="AW28" s="1">
-        <v>58.28450000000001</v>
+        <v>58.2904</v>
       </c>
       <c r="AX28" s="1">
-        <v>58.59289999999999</v>
+        <v>58.59690000000001</v>
       </c>
       <c r="AY28" s="1">
-        <v>49.9156</v>
+        <v>49.9153</v>
       </c>
       <c r="AZ28" s="2">
-        <v>6.945240000000001</v>
+        <v>6.94523</v>
       </c>
       <c r="BA28" s="2">
-        <v>5.48604</v>
+        <v>5.48588</v>
       </c>
       <c r="BB28" s="1">
-        <v>34.663</v>
+        <v>34.6637</v>
       </c>
       <c r="BC28" s="1">
-        <v>43.0125</v>
+        <v>43.0099</v>
       </c>
       <c r="BD28" s="1" t="s">
         <v>142</v>
@@ -6635,25 +6621,25 @@
         <v>142</v>
       </c>
       <c r="BK28" s="1">
-        <v>80.86360000000001</v>
+        <v>80.8711</v>
       </c>
       <c r="BL28" s="1">
-        <v>80.75430000000001</v>
+        <v>80.7565</v>
       </c>
       <c r="BM28" s="1">
-        <v>49.726</v>
+        <v>49.7255</v>
       </c>
       <c r="BN28" s="2">
-        <v>13.6371</v>
+        <v>13.6394</v>
       </c>
       <c r="BO28" s="2">
-        <v>12.6632</v>
+        <v>12.6617</v>
       </c>
       <c r="BP28" s="1">
-        <v>16.6093</v>
+        <v>16.6098</v>
       </c>
       <c r="BQ28" s="1">
-        <v>15.6373</v>
+        <v>15.6367</v>
       </c>
     </row>
     <row r="29" spans="1:69" s="1" customFormat="1">
@@ -6661,112 +6647,112 @@
         <v>143</v>
       </c>
       <c r="T29" s="1">
-        <v>132.561</v>
+        <v>132.567</v>
       </c>
       <c r="U29" s="1">
-        <v>129.894</v>
+        <v>129.904</v>
       </c>
       <c r="V29" s="1">
-        <v>131.228</v>
+        <v>131.235</v>
       </c>
       <c r="W29" s="1">
-        <v>49.9587</v>
+        <v>49.9586</v>
       </c>
       <c r="X29" s="2">
-        <v>23.6302</v>
+        <v>23.6233</v>
       </c>
       <c r="Y29" s="2">
-        <v>23.7681</v>
+        <v>23.7618</v>
       </c>
       <c r="Z29" s="1">
-        <v>46.5866</v>
+        <v>46.5891</v>
       </c>
       <c r="AA29" s="1">
-        <v>47.5424</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>386.801</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>384.945</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>98.9576</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>248.689</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>247.997</v>
+        <v>47.5417</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>179.179</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>178.838</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>50.2103</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>19.451</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>19.376</v>
       </c>
       <c r="AG29" s="1">
-        <v>2.17476</v>
+        <v>43.0324</v>
       </c>
       <c r="AH29" s="1">
-        <v>2.18082</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>389.062</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>387.576</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>98.84610000000001</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>250.372</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>249.559</v>
+        <v>44.1192</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>179.563</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>179.223</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>50.2103</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>19.4562</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>19.3774</v>
       </c>
       <c r="AN29" s="1">
-        <v>2.16832</v>
+        <v>42.9921</v>
       </c>
       <c r="AO29" s="1">
-        <v>2.17421</v>
+        <v>44.0691</v>
       </c>
       <c r="AP29" s="1">
-        <v>72.87049999999999</v>
+        <v>72.87560000000001</v>
       </c>
       <c r="AQ29" s="1">
-        <v>73.30510000000001</v>
+        <v>73.31269999999999</v>
       </c>
       <c r="AR29" s="1">
-        <v>50.0976</v>
+        <v>50.0975</v>
       </c>
       <c r="AS29" s="2">
-        <v>6.2216</v>
+        <v>6.22056</v>
       </c>
       <c r="AT29" s="2">
-        <v>6.04292</v>
+        <v>6.04391</v>
       </c>
       <c r="AU29" s="1">
-        <v>132.558</v>
+        <v>132.581</v>
       </c>
       <c r="AV29" s="1">
-        <v>137.892</v>
+        <v>137.862</v>
       </c>
       <c r="AW29" s="1">
-        <v>87.34660000000001</v>
+        <v>87.3515</v>
       </c>
       <c r="AX29" s="1">
-        <v>87.29300000000001</v>
+        <v>87.29770000000001</v>
       </c>
       <c r="AY29" s="1">
         <v>50.1137</v>
       </c>
       <c r="AZ29" s="2">
-        <v>11.6839</v>
+        <v>11.6837</v>
       </c>
       <c r="BA29" s="2">
-        <v>9.41586</v>
+        <v>9.41643</v>
       </c>
       <c r="BB29" s="1">
-        <v>68.0754</v>
+        <v>68.07550000000001</v>
       </c>
       <c r="BC29" s="1">
-        <v>86.1824</v>
+        <v>86.1849</v>
       </c>
       <c r="BD29" s="1" t="s">
         <v>142</v>
@@ -6790,25 +6776,25 @@
         <v>142</v>
       </c>
       <c r="BK29" s="1">
-        <v>127.734</v>
+        <v>127.738</v>
       </c>
       <c r="BL29" s="1">
-        <v>129.845</v>
+        <v>129.846</v>
       </c>
       <c r="BM29" s="1">
-        <v>50.5366</v>
+        <v>50.537</v>
       </c>
       <c r="BN29" s="2">
-        <v>25.0123</v>
+        <v>25.0115</v>
       </c>
       <c r="BO29" s="2">
-        <v>25.8996</v>
+        <v>25.9005</v>
       </c>
       <c r="BP29" s="1">
-        <v>34.5346</v>
+        <v>34.5335</v>
       </c>
       <c r="BQ29" s="1">
-        <v>39.0895</v>
+        <v>39.0943</v>
       </c>
     </row>
     <row r="30" spans="1:69" s="1" customFormat="1">
@@ -7067,112 +7053,112 @@
         <v>148</v>
       </c>
       <c r="T34" s="1">
-        <v>103.375092</v>
+        <v>103.381988</v>
       </c>
       <c r="U34" s="1">
-        <v>102.213936</v>
+        <v>102.220388</v>
       </c>
       <c r="V34" s="1">
-        <v>102.794496</v>
+        <v>102.801176</v>
       </c>
       <c r="W34" s="1">
-        <v>49.88399999999999</v>
+        <v>49.883868</v>
       </c>
       <c r="X34" s="1">
-        <v>18.258916</v>
+        <v>18.25681999999999</v>
       </c>
       <c r="Y34" s="1">
-        <v>18.072708</v>
+        <v>18.072084</v>
       </c>
       <c r="Z34" s="1">
-        <v>32.982212</v>
+        <v>32.985644</v>
       </c>
       <c r="AA34" s="1">
-        <v>33.307088</v>
+        <v>33.30822000000001</v>
       </c>
       <c r="AB34" s="1">
-        <v>-201.4543200000001</v>
+        <v>141.226</v>
       </c>
       <c r="AC34" s="1">
-        <v>-251.1536</v>
+        <v>138.99456</v>
       </c>
       <c r="AD34" s="1">
-        <v>50.08722400000001</v>
+        <v>49.77685600000001</v>
       </c>
       <c r="AE34" s="1">
-        <v>236.59324</v>
+        <v>15.200944</v>
       </c>
       <c r="AF34" s="1">
-        <v>235.69188</v>
+        <v>14.965892</v>
       </c>
       <c r="AG34" s="1">
-        <v>1.9057712</v>
+        <v>30.42682</v>
       </c>
       <c r="AH34" s="1">
-        <v>1.9129032</v>
+        <v>30.954156</v>
       </c>
       <c r="AI34" s="1">
-        <v>-1186.42176</v>
+        <v>141.61096</v>
       </c>
       <c r="AJ34" s="1">
-        <v>-1376.9432</v>
+        <v>139.38</v>
       </c>
       <c r="AK34" s="1">
-        <v>58.60444439999999</v>
+        <v>49.7769</v>
       </c>
       <c r="AL34" s="1">
-        <v>237.4718</v>
+        <v>15.20674</v>
       </c>
       <c r="AM34" s="1">
-        <v>236.50148</v>
+        <v>14.97228</v>
       </c>
       <c r="AN34" s="1">
-        <v>1.8989952</v>
+        <v>30.41335999999999</v>
       </c>
       <c r="AO34" s="1">
-        <v>1.9065556</v>
+        <v>30.938036</v>
       </c>
       <c r="AP34" s="1">
-        <v>62.09326</v>
+        <v>62.09972399999999</v>
       </c>
       <c r="AQ34" s="1">
-        <v>62.525088</v>
+        <v>62.5305</v>
       </c>
       <c r="AR34" s="1">
-        <v>50.04317999999999</v>
+        <v>50.04306799999999</v>
       </c>
       <c r="AS34" s="1">
-        <v>4.8052476</v>
+        <v>4.805409600000001</v>
       </c>
       <c r="AT34" s="1">
-        <v>4.636587599999999</v>
+        <v>4.636368000000001</v>
       </c>
       <c r="AU34" s="1">
-        <v>93.57382</v>
+        <v>93.568916</v>
       </c>
       <c r="AV34" s="1">
-        <v>97.10738399999998</v>
+        <v>97.11224799999999</v>
       </c>
       <c r="AW34" s="1">
-        <v>72.565336</v>
+        <v>72.571432</v>
       </c>
       <c r="AX34" s="1">
-        <v>72.735308</v>
+        <v>72.74049599999998</v>
       </c>
       <c r="AY34" s="1">
-        <v>50.017012</v>
+        <v>50.01688400000001</v>
       </c>
       <c r="AZ34" s="1">
-        <v>9.072104400000002</v>
+        <v>9.072031600000001</v>
       </c>
       <c r="BA34" s="1">
-        <v>7.206336400000001</v>
+        <v>7.206434399999997</v>
       </c>
       <c r="BB34" s="1">
-        <v>50.00299999999999</v>
+        <v>50.00359999999998</v>
       </c>
       <c r="BC34" s="1">
-        <v>62.8403</v>
+        <v>62.839744</v>
       </c>
       <c r="BD34" s="1" t="s">
         <v>142</v>
@@ -7196,25 +7182,25 @@
         <v>142</v>
       </c>
       <c r="BK34" s="1">
-        <v>102.155248</v>
+        <v>102.161652</v>
       </c>
       <c r="BL34" s="1">
-        <v>102.749728</v>
+        <v>102.754536</v>
       </c>
       <c r="BM34" s="1">
-        <v>50.05943199999999</v>
+        <v>50.059272</v>
       </c>
       <c r="BN34" s="1">
-        <v>18.963004</v>
+        <v>18.962716</v>
       </c>
       <c r="BO34" s="1">
-        <v>18.140676</v>
+        <v>18.140744</v>
       </c>
       <c r="BP34" s="1">
-        <v>24.906204</v>
+        <v>24.906316</v>
       </c>
       <c r="BQ34" s="1">
-        <v>26.162908</v>
+        <v>26.162904</v>
       </c>
     </row>
     <row r="35" spans="19:69" s="1" customFormat="1">
@@ -7222,112 +7208,112 @@
         <v>149</v>
       </c>
       <c r="T35" s="1">
-        <v>12.38412812187987</v>
+        <v>12.38453451321671</v>
       </c>
       <c r="U35" s="1">
-        <v>11.97495826838257</v>
+        <v>11.97528493791509</v>
       </c>
       <c r="V35" s="1">
-        <v>12.17761834374785</v>
+        <v>12.17794117772885</v>
       </c>
       <c r="W35" s="1">
-        <v>0.05964332653365309</v>
+        <v>0.05951829782512184</v>
       </c>
       <c r="X35" s="1">
-        <v>2.75327127216771</v>
+        <v>2.752575630931873</v>
       </c>
       <c r="Y35" s="1">
-        <v>2.675055696155876</v>
+        <v>2.674619947982143</v>
       </c>
       <c r="Z35" s="1">
-        <v>6.422903554768356</v>
+        <v>6.422353869669905</v>
       </c>
       <c r="AA35" s="1">
-        <v>6.485502909740771</v>
+        <v>6.486165264869529</v>
       </c>
       <c r="AB35" s="1">
-        <v>876.9772646810279</v>
+        <v>16.12232097435106</v>
       </c>
       <c r="AC35" s="1">
-        <v>953.5380081343797</v>
+        <v>16.85989759655734</v>
       </c>
       <c r="AD35" s="1">
-        <v>16.81140650394916</v>
+        <v>0.1845067089945511</v>
       </c>
       <c r="AE35" s="1">
-        <v>5.9950516079847</v>
+        <v>2.162533321838995</v>
       </c>
       <c r="AF35" s="1">
-        <v>5.692245843742171</v>
+        <v>2.189982149684331</v>
       </c>
       <c r="AG35" s="1">
-        <v>0.2160069792079876</v>
+        <v>6.371444341120779</v>
       </c>
       <c r="AH35" s="1">
-        <v>0.2159913832303502</v>
+        <v>6.63287366754893</v>
       </c>
       <c r="AI35" s="1">
-        <v>1156.518464373631</v>
+        <v>16.12187002671837</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1313.224561373842</v>
+        <v>16.85934803009891</v>
       </c>
       <c r="AK35" s="1">
-        <v>26.38843440835338</v>
+        <v>0.1844796053768545</v>
       </c>
       <c r="AL35" s="1">
-        <v>6.334826021288981</v>
+        <v>2.160838718090732</v>
       </c>
       <c r="AM35" s="1">
-        <v>5.949245620211021</v>
+        <v>2.187029472320846</v>
       </c>
       <c r="AN35" s="1">
-        <v>0.2169838140345035</v>
+        <v>6.363091187213962</v>
       </c>
       <c r="AO35" s="1">
-        <v>0.2165709124158644</v>
+        <v>6.621190343367572</v>
       </c>
       <c r="AP35" s="1">
-        <v>5.946013246403006</v>
+        <v>5.946669596894048</v>
       </c>
       <c r="AQ35" s="1">
-        <v>5.944920503241065</v>
+        <v>5.945289656997376</v>
       </c>
       <c r="AR35" s="1">
-        <v>0.0219903615249952</v>
+        <v>0.02211552793853166</v>
       </c>
       <c r="AS35" s="1">
-        <v>0.6951088920811186</v>
+        <v>0.694821126877875</v>
       </c>
       <c r="AT35" s="1">
-        <v>0.6858774836967897</v>
+        <v>0.6858977941763628</v>
       </c>
       <c r="AU35" s="1">
-        <v>16.66159915206221</v>
+        <v>16.65448388850714</v>
       </c>
       <c r="AV35" s="1">
-        <v>17.7498906966478</v>
+        <v>17.75133827996346</v>
       </c>
       <c r="AW35" s="1">
-        <v>7.352131224121616</v>
+        <v>7.3526138417692</v>
       </c>
       <c r="AX35" s="1">
-        <v>7.308165339614042</v>
+        <v>7.308182843606476</v>
       </c>
       <c r="AY35" s="1">
-        <v>0.06105839382099736</v>
+        <v>0.06118221754725738</v>
       </c>
       <c r="AZ35" s="1">
-        <v>1.530091022743628</v>
+        <v>1.530191563327102</v>
       </c>
       <c r="BA35" s="1">
-        <v>1.161430860078653</v>
+        <v>1.161599747848044</v>
       </c>
       <c r="BB35" s="1">
-        <v>10.06650353447512</v>
+        <v>10.0672001251192</v>
       </c>
       <c r="BC35" s="1">
-        <v>12.51895605321786</v>
+        <v>12.51939864163067</v>
       </c>
       <c r="BD35" s="1" t="s">
         <v>142</v>
@@ -7351,25 +7337,25 @@
         <v>142</v>
       </c>
       <c r="BK35" s="1">
-        <v>11.15383404076356</v>
+        <v>11.15360036609238</v>
       </c>
       <c r="BL35" s="1">
-        <v>11.80904803497792</v>
+        <v>11.80856710636409</v>
       </c>
       <c r="BM35" s="1">
-        <v>0.2243641463692453</v>
+        <v>0.2245709393844184</v>
       </c>
       <c r="BN35" s="1">
-        <v>4.262789091707916</v>
+        <v>4.262322498796166</v>
       </c>
       <c r="BO35" s="1">
-        <v>4.013823573131236</v>
+        <v>4.013984977359033</v>
       </c>
       <c r="BP35" s="1">
-        <v>5.737634927562401</v>
+        <v>5.737218390243132</v>
       </c>
       <c r="BQ35" s="1">
-        <v>6.713695865909924</v>
+        <v>6.713804455685614</v>
       </c>
     </row>
     <row r="36" spans="19:69" s="1" customFormat="1">
@@ -7377,112 +7363,112 @@
         <v>150</v>
       </c>
       <c r="T36" s="1">
-        <v>11.97979888799506</v>
+        <v>11.97939288342638</v>
       </c>
       <c r="U36" s="1">
-        <v>11.71558276396143</v>
+        <v>11.7151628674263</v>
       </c>
       <c r="V36" s="1">
-        <v>11.84656651631216</v>
+        <v>11.84611076601775</v>
       </c>
       <c r="W36" s="1">
-        <v>0.1195640416439201</v>
+        <v>0.1193137184652999</v>
       </c>
       <c r="X36" s="1">
-        <v>15.07905109026029</v>
+        <v>15.07697195312149</v>
       </c>
       <c r="Y36" s="1">
-        <v>14.8016318094437</v>
+        <v>14.79973171872233</v>
       </c>
       <c r="Z36" s="1">
-        <v>19.4738410958257</v>
+        <v>19.47014849754004</v>
       </c>
       <c r="AA36" s="1">
-        <v>19.47184007722552</v>
+        <v>19.47316687853487</v>
       </c>
       <c r="AB36" s="1">
-        <v>435.3231366202659</v>
+        <v>11.41597225323316</v>
       </c>
       <c r="AC36" s="1">
-        <v>379.6632849914871</v>
+        <v>12.12989745538051</v>
       </c>
       <c r="AD36" s="1">
-        <v>33.56426082617227</v>
+        <v>0.3706676632902469</v>
       </c>
       <c r="AE36" s="1">
-        <v>2.533906551169721</v>
+        <v>14.2263093781478</v>
       </c>
       <c r="AF36" s="1">
-        <v>2.415121744432677</v>
+        <v>14.63315484091647</v>
       </c>
       <c r="AG36" s="1">
-        <v>11.33436055744717</v>
+        <v>20.94022425321075</v>
       </c>
       <c r="AH36" s="1">
-        <v>11.29128662811323</v>
+        <v>21.42805530717403</v>
       </c>
       <c r="AI36" s="1">
-        <v>97.47953917952677</v>
+        <v>11.38462024882704</v>
       </c>
       <c r="AJ36" s="1">
-        <v>95.3724570028627</v>
+        <v>12.09595926969358</v>
       </c>
       <c r="AK36" s="1">
-        <v>45.02804297271587</v>
+        <v>0.3706128854485805</v>
       </c>
       <c r="AL36" s="1">
-        <v>2.667611910672754</v>
+        <v>14.20974329863424</v>
       </c>
       <c r="AM36" s="1">
-        <v>2.515521518178669</v>
+        <v>14.60719057031292</v>
       </c>
       <c r="AN36" s="1">
-        <v>11.42624341728212</v>
+        <v>20.9220263305796</v>
       </c>
       <c r="AO36" s="1">
-        <v>11.35927598523035</v>
+        <v>21.40145658686147</v>
       </c>
       <c r="AP36" s="1">
-        <v>9.575939878825828</v>
+        <v>9.576000042921367</v>
       </c>
       <c r="AQ36" s="1">
-        <v>9.508056195364436</v>
+        <v>9.50782363326277</v>
       </c>
       <c r="AR36" s="1">
-        <v>0.04394277407030329</v>
+        <v>0.04419298980336629</v>
       </c>
       <c r="AS36" s="1">
-        <v>14.46562071184675</v>
+        <v>14.45914468722656</v>
       </c>
       <c r="AT36" s="1">
-        <v>14.79272134741485</v>
+        <v>14.79386006840619</v>
       </c>
       <c r="AU36" s="1">
-        <v>17.80583410195523</v>
+        <v>17.79916301318179</v>
       </c>
       <c r="AV36" s="1">
-        <v>18.27862101263875</v>
+        <v>18.27919613184473</v>
       </c>
       <c r="AW36" s="1">
-        <v>10.1317400695583</v>
+        <v>10.13155402771879</v>
       </c>
       <c r="AX36" s="1">
-        <v>10.04761723097954</v>
+        <v>10.04692467811393</v>
       </c>
       <c r="AY36" s="1">
-        <v>0.1220752527579963</v>
+        <v>0.1223231290203072</v>
       </c>
       <c r="AZ36" s="1">
-        <v>16.86588861062519</v>
+        <v>16.86713220142555</v>
       </c>
       <c r="BA36" s="1">
-        <v>16.11680048795187</v>
+        <v>16.1189248853503</v>
       </c>
       <c r="BB36" s="1">
-        <v>20.13179916100057</v>
+        <v>20.13295067778961</v>
       </c>
       <c r="BC36" s="1">
-        <v>19.92185914646788</v>
+        <v>19.92273972604133</v>
       </c>
       <c r="BD36" s="1" t="s">
         <v>142</v>
@@ -7506,25 +7492,25 @@
         <v>142</v>
       </c>
       <c r="BK36" s="1">
-        <v>10.91851300753884</v>
+        <v>10.91759985057052</v>
       </c>
       <c r="BL36" s="1">
-        <v>11.4930212126478</v>
+        <v>11.49201540491029</v>
       </c>
       <c r="BM36" s="1">
-        <v>0.4481955495804373</v>
+        <v>0.448610078437454</v>
       </c>
       <c r="BN36" s="1">
-        <v>22.47950320375356</v>
+        <v>22.47738403505155</v>
       </c>
       <c r="BO36" s="1">
-        <v>22.12609702709665</v>
+        <v>22.12690382135944</v>
       </c>
       <c r="BP36" s="1">
-        <v>23.03697073854531</v>
+        <v>23.03519472828953</v>
       </c>
       <c r="BQ36" s="1">
-        <v>25.66112247885413</v>
+        <v>25.66154145459393</v>
       </c>
     </row>
     <row r="37" spans="19:69" s="1" customFormat="1"/>
